--- a/Hit Name List for January 2023 (ACP).xlsx
+++ b/Hit Name List for January 2023 (ACP).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cylong\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CP1\Documents\GitHub\Google-Risk-Checking\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2674,7 +2674,7 @@
   <dimension ref="A1:P672"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2733,6 +2733,9 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>111552</v>
+      </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
@@ -2762,6 +2765,9 @@
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>111553</v>
+      </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
@@ -2788,6 +2794,9 @@
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4">
+        <v>111554</v>
+      </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
@@ -2811,6 +2820,9 @@
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>111555</v>
+      </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -2834,6 +2846,9 @@
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6">
+        <v>111556</v>
+      </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -2857,6 +2872,9 @@
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7">
+        <v>111557</v>
+      </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
@@ -2879,6 +2897,9 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
+      </c>
+      <c r="B8">
+        <v>111558</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -2903,6 +2924,9 @@
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9">
+        <v>111559</v>
+      </c>
       <c r="C9" t="s">
         <v>23</v>
       </c>
@@ -2926,6 +2950,9 @@
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10">
+        <v>111560</v>
+      </c>
       <c r="C10" t="s">
         <v>24</v>
       </c>
@@ -2948,6 +2975,9 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
+      </c>
+      <c r="B11">
+        <v>111561</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
@@ -2972,6 +3002,9 @@
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12">
+        <v>111562</v>
+      </c>
       <c r="C12" t="s">
         <v>27</v>
       </c>
@@ -2995,6 +3028,9 @@
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13">
+        <v>111563</v>
+      </c>
       <c r="C13" t="s">
         <v>29</v>
       </c>
@@ -3018,6 +3054,9 @@
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14">
+        <v>111564</v>
+      </c>
       <c r="C14" t="s">
         <v>31</v>
       </c>
@@ -3040,6 +3079,9 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
+      </c>
+      <c r="B15">
+        <v>111565</v>
       </c>
       <c r="C15" t="s">
         <v>33</v>
@@ -3064,6 +3106,9 @@
       <c r="A16">
         <v>15</v>
       </c>
+      <c r="B16">
+        <v>111566</v>
+      </c>
       <c r="C16" t="s">
         <v>34</v>
       </c>
@@ -3087,6 +3132,9 @@
       <c r="A17">
         <v>16</v>
       </c>
+      <c r="B17">
+        <v>111567</v>
+      </c>
       <c r="C17" t="s">
         <v>36</v>
       </c>
@@ -3110,6 +3158,9 @@
       <c r="A18">
         <v>17</v>
       </c>
+      <c r="B18">
+        <v>111568</v>
+      </c>
       <c r="C18" t="s">
         <v>37</v>
       </c>
@@ -3133,6 +3184,9 @@
       <c r="A19">
         <v>18</v>
       </c>
+      <c r="B19">
+        <v>111569</v>
+      </c>
       <c r="C19" t="s">
         <v>39</v>
       </c>
@@ -3156,6 +3210,9 @@
       <c r="A20">
         <v>19</v>
       </c>
+      <c r="B20">
+        <v>111570</v>
+      </c>
       <c r="C20" t="s">
         <v>41</v>
       </c>
@@ -3179,6 +3236,9 @@
       <c r="A21">
         <v>20</v>
       </c>
+      <c r="B21">
+        <v>111571</v>
+      </c>
       <c r="C21" t="s">
         <v>43</v>
       </c>
@@ -3202,6 +3262,9 @@
       <c r="A22">
         <v>21</v>
       </c>
+      <c r="B22">
+        <v>111572</v>
+      </c>
       <c r="C22" t="s">
         <v>45</v>
       </c>
@@ -3225,6 +3288,9 @@
       <c r="A23">
         <v>22</v>
       </c>
+      <c r="B23">
+        <v>111573</v>
+      </c>
       <c r="C23" t="s">
         <v>47</v>
       </c>
@@ -3248,6 +3314,9 @@
       <c r="A24">
         <v>23</v>
       </c>
+      <c r="B24">
+        <v>111574</v>
+      </c>
       <c r="C24" t="s">
         <v>48</v>
       </c>
@@ -3271,6 +3340,9 @@
       <c r="A25">
         <v>24</v>
       </c>
+      <c r="B25">
+        <v>111575</v>
+      </c>
       <c r="C25" t="s">
         <v>50</v>
       </c>
@@ -3294,6 +3366,9 @@
       <c r="A26">
         <v>25</v>
       </c>
+      <c r="B26">
+        <v>111576</v>
+      </c>
       <c r="C26" t="s">
         <v>53</v>
       </c>
@@ -3317,6 +3392,9 @@
       <c r="A27">
         <v>26</v>
       </c>
+      <c r="B27">
+        <v>111577</v>
+      </c>
       <c r="C27" t="s">
         <v>54</v>
       </c>
@@ -3340,6 +3418,9 @@
       <c r="A28">
         <v>27</v>
       </c>
+      <c r="B28">
+        <v>111578</v>
+      </c>
       <c r="C28" t="s">
         <v>55</v>
       </c>
@@ -3363,6 +3444,9 @@
       <c r="A29">
         <v>28</v>
       </c>
+      <c r="B29">
+        <v>111579</v>
+      </c>
       <c r="C29" t="s">
         <v>56</v>
       </c>
@@ -3386,6 +3470,9 @@
       <c r="A30">
         <v>29</v>
       </c>
+      <c r="B30">
+        <v>111580</v>
+      </c>
       <c r="C30" t="s">
         <v>57</v>
       </c>
@@ -3409,6 +3496,9 @@
       <c r="A31">
         <v>30</v>
       </c>
+      <c r="B31">
+        <v>111581</v>
+      </c>
       <c r="C31" t="s">
         <v>59</v>
       </c>
@@ -3432,6 +3522,9 @@
       <c r="A32">
         <v>31</v>
       </c>
+      <c r="B32">
+        <v>111582</v>
+      </c>
       <c r="C32" t="s">
         <v>60</v>
       </c>
@@ -3455,6 +3548,9 @@
       <c r="A33">
         <v>32</v>
       </c>
+      <c r="B33">
+        <v>111583</v>
+      </c>
       <c r="C33" t="s">
         <v>61</v>
       </c>
@@ -3478,6 +3574,9 @@
       <c r="A34">
         <v>33</v>
       </c>
+      <c r="B34">
+        <v>111584</v>
+      </c>
       <c r="C34" t="s">
         <v>62</v>
       </c>
@@ -3501,6 +3600,9 @@
       <c r="A35">
         <v>34</v>
       </c>
+      <c r="B35">
+        <v>111585</v>
+      </c>
       <c r="C35" t="s">
         <v>63</v>
       </c>
@@ -3524,6 +3626,9 @@
       <c r="A36">
         <v>35</v>
       </c>
+      <c r="B36">
+        <v>111586</v>
+      </c>
       <c r="C36" t="s">
         <v>64</v>
       </c>
@@ -3547,6 +3652,9 @@
       <c r="A37">
         <v>36</v>
       </c>
+      <c r="B37">
+        <v>111587</v>
+      </c>
       <c r="C37" t="s">
         <v>66</v>
       </c>
@@ -3570,6 +3678,9 @@
       <c r="A38">
         <v>37</v>
       </c>
+      <c r="B38">
+        <v>111588</v>
+      </c>
       <c r="C38" t="s">
         <v>67</v>
       </c>
@@ -3592,6 +3703,9 @@
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
+      </c>
+      <c r="B39">
+        <v>111589</v>
       </c>
       <c r="C39" t="s">
         <v>68</v>
@@ -3616,6 +3730,9 @@
       <c r="A40">
         <v>39</v>
       </c>
+      <c r="B40">
+        <v>111590</v>
+      </c>
       <c r="C40" t="s">
         <v>70</v>
       </c>
@@ -3639,6 +3756,9 @@
       <c r="A41">
         <v>40</v>
       </c>
+      <c r="B41">
+        <v>111591</v>
+      </c>
       <c r="C41" t="s">
         <v>71</v>
       </c>
@@ -3662,6 +3782,9 @@
       <c r="A42">
         <v>41</v>
       </c>
+      <c r="B42">
+        <v>111592</v>
+      </c>
       <c r="C42" t="s">
         <v>72</v>
       </c>
@@ -3685,6 +3808,9 @@
       <c r="A43">
         <v>42</v>
       </c>
+      <c r="B43">
+        <v>111593</v>
+      </c>
       <c r="C43" t="s">
         <v>73</v>
       </c>
@@ -3708,6 +3834,9 @@
       <c r="A44">
         <v>43</v>
       </c>
+      <c r="B44">
+        <v>111594</v>
+      </c>
       <c r="C44" t="s">
         <v>74</v>
       </c>
@@ -3731,6 +3860,9 @@
       <c r="A45">
         <v>44</v>
       </c>
+      <c r="B45">
+        <v>111595</v>
+      </c>
       <c r="C45" t="s">
         <v>76</v>
       </c>
@@ -3754,6 +3886,9 @@
       <c r="A46">
         <v>45</v>
       </c>
+      <c r="B46">
+        <v>111596</v>
+      </c>
       <c r="C46" t="s">
         <v>78</v>
       </c>
@@ -3774,6 +3909,9 @@
       <c r="A47">
         <v>46</v>
       </c>
+      <c r="B47">
+        <v>111597</v>
+      </c>
       <c r="C47" t="s">
         <v>79</v>
       </c>
@@ -3794,6 +3932,9 @@
       <c r="A48">
         <v>47</v>
       </c>
+      <c r="B48">
+        <v>111598</v>
+      </c>
       <c r="C48" t="s">
         <v>80</v>
       </c>
@@ -3814,6 +3955,9 @@
       <c r="A49">
         <v>48</v>
       </c>
+      <c r="B49">
+        <v>111599</v>
+      </c>
       <c r="C49" t="s">
         <v>81</v>
       </c>
@@ -3834,6 +3978,9 @@
       <c r="A50">
         <v>49</v>
       </c>
+      <c r="B50">
+        <v>111600</v>
+      </c>
       <c r="C50" t="s">
         <v>82</v>
       </c>
@@ -3854,6 +4001,9 @@
       <c r="A51">
         <v>50</v>
       </c>
+      <c r="B51">
+        <v>111601</v>
+      </c>
       <c r="C51" t="s">
         <v>83</v>
       </c>
@@ -3874,6 +4024,9 @@
       <c r="A52">
         <v>51</v>
       </c>
+      <c r="B52">
+        <v>111602</v>
+      </c>
       <c r="C52" t="s">
         <v>84</v>
       </c>
@@ -3894,6 +4047,9 @@
       <c r="A53">
         <v>52</v>
       </c>
+      <c r="B53">
+        <v>111603</v>
+      </c>
       <c r="C53" t="s">
         <v>85</v>
       </c>
@@ -3914,6 +4070,9 @@
       <c r="A54">
         <v>53</v>
       </c>
+      <c r="B54">
+        <v>111604</v>
+      </c>
       <c r="C54" t="s">
         <v>86</v>
       </c>
@@ -3934,6 +4093,9 @@
       <c r="A55">
         <v>54</v>
       </c>
+      <c r="B55">
+        <v>111605</v>
+      </c>
       <c r="C55" t="s">
         <v>87</v>
       </c>
@@ -3954,6 +4116,9 @@
       <c r="A56">
         <v>55</v>
       </c>
+      <c r="B56">
+        <v>111606</v>
+      </c>
       <c r="C56" t="s">
         <v>90</v>
       </c>
@@ -3974,6 +4139,9 @@
       <c r="A57">
         <v>56</v>
       </c>
+      <c r="B57">
+        <v>111607</v>
+      </c>
       <c r="C57" t="s">
         <v>92</v>
       </c>
@@ -3994,6 +4162,9 @@
       <c r="A58">
         <v>57</v>
       </c>
+      <c r="B58">
+        <v>111608</v>
+      </c>
       <c r="C58" t="s">
         <v>94</v>
       </c>
@@ -4014,6 +4185,9 @@
       <c r="A59">
         <v>58</v>
       </c>
+      <c r="B59">
+        <v>111609</v>
+      </c>
       <c r="C59" t="s">
         <v>95</v>
       </c>
@@ -4034,6 +4208,9 @@
       <c r="A60">
         <v>59</v>
       </c>
+      <c r="B60">
+        <v>111610</v>
+      </c>
       <c r="C60" t="s">
         <v>97</v>
       </c>
@@ -4054,6 +4231,9 @@
       <c r="A61">
         <v>60</v>
       </c>
+      <c r="B61">
+        <v>111611</v>
+      </c>
       <c r="C61" t="s">
         <v>98</v>
       </c>
@@ -4074,6 +4254,9 @@
       <c r="A62">
         <v>61</v>
       </c>
+      <c r="B62">
+        <v>111612</v>
+      </c>
       <c r="C62" t="s">
         <v>99</v>
       </c>
@@ -4094,6 +4277,9 @@
       <c r="A63">
         <v>62</v>
       </c>
+      <c r="B63">
+        <v>111613</v>
+      </c>
       <c r="C63" t="s">
         <v>100</v>
       </c>
@@ -4114,6 +4300,9 @@
       <c r="A64">
         <v>63</v>
       </c>
+      <c r="B64">
+        <v>111614</v>
+      </c>
       <c r="C64" t="s">
         <v>101</v>
       </c>
@@ -4134,6 +4323,9 @@
       <c r="A65">
         <v>64</v>
       </c>
+      <c r="B65">
+        <v>111615</v>
+      </c>
       <c r="C65" t="s">
         <v>102</v>
       </c>
@@ -4154,6 +4346,9 @@
       <c r="A66">
         <v>65</v>
       </c>
+      <c r="B66">
+        <v>111616</v>
+      </c>
       <c r="C66" t="s">
         <v>104</v>
       </c>
@@ -4174,6 +4369,9 @@
       <c r="A67">
         <v>66</v>
       </c>
+      <c r="B67">
+        <v>111617</v>
+      </c>
       <c r="C67" t="s">
         <v>105</v>
       </c>
@@ -4194,6 +4392,9 @@
       <c r="A68">
         <v>67</v>
       </c>
+      <c r="B68">
+        <v>111618</v>
+      </c>
       <c r="C68" t="s">
         <v>106</v>
       </c>
@@ -4214,6 +4415,9 @@
       <c r="A69">
         <v>68</v>
       </c>
+      <c r="B69">
+        <v>111619</v>
+      </c>
       <c r="C69" t="s">
         <v>107</v>
       </c>
@@ -4234,6 +4438,9 @@
       <c r="A70">
         <v>69</v>
       </c>
+      <c r="B70">
+        <v>111620</v>
+      </c>
       <c r="C70" t="s">
         <v>108</v>
       </c>
@@ -4254,6 +4461,9 @@
       <c r="A71">
         <v>70</v>
       </c>
+      <c r="B71">
+        <v>111621</v>
+      </c>
       <c r="C71" t="s">
         <v>109</v>
       </c>
@@ -4274,6 +4484,9 @@
       <c r="A72">
         <v>71</v>
       </c>
+      <c r="B72">
+        <v>111622</v>
+      </c>
       <c r="C72" t="s">
         <v>110</v>
       </c>
@@ -4294,6 +4507,9 @@
       <c r="A73">
         <v>72</v>
       </c>
+      <c r="B73">
+        <v>111623</v>
+      </c>
       <c r="C73" t="s">
         <v>111</v>
       </c>
@@ -4314,6 +4530,9 @@
       <c r="A74">
         <v>73</v>
       </c>
+      <c r="B74">
+        <v>111624</v>
+      </c>
       <c r="C74" t="s">
         <v>112</v>
       </c>
@@ -4334,6 +4553,9 @@
       <c r="A75">
         <v>74</v>
       </c>
+      <c r="B75">
+        <v>111625</v>
+      </c>
       <c r="C75" t="s">
         <v>114</v>
       </c>
@@ -4354,6 +4576,9 @@
       <c r="A76">
         <v>75</v>
       </c>
+      <c r="B76">
+        <v>111626</v>
+      </c>
       <c r="C76" t="s">
         <v>116</v>
       </c>
@@ -4374,6 +4599,9 @@
       <c r="A77">
         <v>76</v>
       </c>
+      <c r="B77">
+        <v>111627</v>
+      </c>
       <c r="C77" t="s">
         <v>118</v>
       </c>
@@ -4394,6 +4622,9 @@
       <c r="A78">
         <v>77</v>
       </c>
+      <c r="B78">
+        <v>111628</v>
+      </c>
       <c r="C78" t="s">
         <v>119</v>
       </c>
@@ -4414,6 +4645,9 @@
       <c r="A79">
         <v>78</v>
       </c>
+      <c r="B79">
+        <v>111629</v>
+      </c>
       <c r="C79" t="s">
         <v>120</v>
       </c>
@@ -4434,6 +4668,9 @@
       <c r="A80">
         <v>79</v>
       </c>
+      <c r="B80">
+        <v>111630</v>
+      </c>
       <c r="C80" t="s">
         <v>121</v>
       </c>
@@ -4454,6 +4691,9 @@
       <c r="A81">
         <v>80</v>
       </c>
+      <c r="B81">
+        <v>111631</v>
+      </c>
       <c r="C81" t="s">
         <v>122</v>
       </c>
@@ -4474,6 +4714,9 @@
       <c r="A82">
         <v>81</v>
       </c>
+      <c r="B82">
+        <v>111632</v>
+      </c>
       <c r="C82" t="s">
         <v>123</v>
       </c>
@@ -4494,6 +4737,9 @@
       <c r="A83">
         <v>82</v>
       </c>
+      <c r="B83">
+        <v>111633</v>
+      </c>
       <c r="C83" t="s">
         <v>124</v>
       </c>
@@ -4514,6 +4760,9 @@
       <c r="A84">
         <v>83</v>
       </c>
+      <c r="B84">
+        <v>111634</v>
+      </c>
       <c r="C84" t="s">
         <v>125</v>
       </c>
@@ -4534,6 +4783,9 @@
       <c r="A85">
         <v>84</v>
       </c>
+      <c r="B85">
+        <v>111635</v>
+      </c>
       <c r="C85" t="s">
         <v>126</v>
       </c>
@@ -4554,6 +4806,9 @@
       <c r="A86">
         <v>85</v>
       </c>
+      <c r="B86">
+        <v>111636</v>
+      </c>
       <c r="C86" t="s">
         <v>128</v>
       </c>
@@ -4574,6 +4829,9 @@
       <c r="A87">
         <v>86</v>
       </c>
+      <c r="B87">
+        <v>111637</v>
+      </c>
       <c r="C87" t="s">
         <v>130</v>
       </c>
@@ -4594,6 +4852,9 @@
       <c r="A88">
         <v>87</v>
       </c>
+      <c r="B88">
+        <v>111638</v>
+      </c>
       <c r="C88" t="s">
         <v>131</v>
       </c>
@@ -4614,6 +4875,9 @@
       <c r="A89">
         <v>88</v>
       </c>
+      <c r="B89">
+        <v>111639</v>
+      </c>
       <c r="C89" t="s">
         <v>132</v>
       </c>
@@ -4634,6 +4898,9 @@
       <c r="A90">
         <v>89</v>
       </c>
+      <c r="B90">
+        <v>111640</v>
+      </c>
       <c r="C90" t="s">
         <v>133</v>
       </c>
@@ -4654,6 +4921,9 @@
       <c r="A91">
         <v>90</v>
       </c>
+      <c r="B91">
+        <v>111641</v>
+      </c>
       <c r="C91" t="s">
         <v>134</v>
       </c>
@@ -4674,6 +4944,9 @@
       <c r="A92">
         <v>91</v>
       </c>
+      <c r="B92">
+        <v>111642</v>
+      </c>
       <c r="C92" t="s">
         <v>135</v>
       </c>
@@ -4694,6 +4967,9 @@
       <c r="A93">
         <v>1</v>
       </c>
+      <c r="B93">
+        <v>111643</v>
+      </c>
       <c r="C93" t="s">
         <v>138</v>
       </c>
@@ -4714,6 +4990,9 @@
       <c r="A94">
         <v>2</v>
       </c>
+      <c r="B94">
+        <v>111644</v>
+      </c>
       <c r="C94" t="s">
         <v>139</v>
       </c>
@@ -4734,6 +5013,9 @@
       <c r="A95">
         <v>3</v>
       </c>
+      <c r="B95">
+        <v>111645</v>
+      </c>
       <c r="C95" t="s">
         <v>141</v>
       </c>
@@ -4754,6 +5036,9 @@
       <c r="A96">
         <v>4</v>
       </c>
+      <c r="B96">
+        <v>111646</v>
+      </c>
       <c r="C96" t="s">
         <v>142</v>
       </c>
@@ -4774,6 +5059,9 @@
       <c r="A97">
         <v>5</v>
       </c>
+      <c r="B97">
+        <v>111647</v>
+      </c>
       <c r="C97" t="s">
         <v>143</v>
       </c>
@@ -4794,6 +5082,9 @@
       <c r="A98">
         <v>6</v>
       </c>
+      <c r="B98">
+        <v>111648</v>
+      </c>
       <c r="C98" t="s">
         <v>144</v>
       </c>
@@ -4813,6 +5104,9 @@
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>7</v>
+      </c>
+      <c r="B99">
+        <v>111649</v>
       </c>
       <c r="C99" t="s">
         <v>145</v>
@@ -4834,6 +5128,9 @@
       <c r="A100">
         <v>8</v>
       </c>
+      <c r="B100">
+        <v>111650</v>
+      </c>
       <c r="C100" t="s">
         <v>146</v>
       </c>
@@ -4854,6 +5151,9 @@
       <c r="A101">
         <v>9</v>
       </c>
+      <c r="B101">
+        <v>111651</v>
+      </c>
       <c r="C101" t="s">
         <v>147</v>
       </c>
@@ -4873,6 +5173,9 @@
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>10</v>
+      </c>
+      <c r="B102">
+        <v>111652</v>
       </c>
       <c r="C102" t="s">
         <v>148</v>
@@ -4894,6 +5197,9 @@
       <c r="A103">
         <v>11</v>
       </c>
+      <c r="B103">
+        <v>111653</v>
+      </c>
       <c r="C103" t="s">
         <v>149</v>
       </c>
@@ -4914,6 +5220,9 @@
       <c r="A104">
         <v>12</v>
       </c>
+      <c r="B104">
+        <v>111654</v>
+      </c>
       <c r="C104" t="s">
         <v>151</v>
       </c>
@@ -4934,6 +5243,9 @@
       <c r="A105">
         <v>13</v>
       </c>
+      <c r="B105">
+        <v>111655</v>
+      </c>
       <c r="C105" t="s">
         <v>152</v>
       </c>
@@ -4953,6 +5265,9 @@
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>14</v>
+      </c>
+      <c r="B106">
+        <v>111656</v>
       </c>
       <c r="C106" t="s">
         <v>153</v>
@@ -4974,6 +5289,9 @@
       <c r="A107">
         <v>15</v>
       </c>
+      <c r="B107">
+        <v>111657</v>
+      </c>
       <c r="C107" t="s">
         <v>154</v>
       </c>
@@ -4994,6 +5312,9 @@
       <c r="A108">
         <v>16</v>
       </c>
+      <c r="B108">
+        <v>111658</v>
+      </c>
       <c r="C108" t="s">
         <v>155</v>
       </c>
@@ -5014,6 +5335,9 @@
       <c r="A109">
         <v>17</v>
       </c>
+      <c r="B109">
+        <v>111659</v>
+      </c>
       <c r="C109" t="s">
         <v>157</v>
       </c>
@@ -5034,6 +5358,9 @@
       <c r="A110">
         <v>18</v>
       </c>
+      <c r="B110">
+        <v>111660</v>
+      </c>
       <c r="C110" t="s">
         <v>158</v>
       </c>
@@ -5054,6 +5381,9 @@
       <c r="A111">
         <v>19</v>
       </c>
+      <c r="B111">
+        <v>111661</v>
+      </c>
       <c r="C111" t="s">
         <v>159</v>
       </c>
@@ -5074,6 +5404,9 @@
       <c r="A112">
         <v>20</v>
       </c>
+      <c r="B112">
+        <v>111662</v>
+      </c>
       <c r="C112" t="s">
         <v>160</v>
       </c>
@@ -5094,6 +5427,9 @@
       <c r="A113">
         <v>21</v>
       </c>
+      <c r="B113">
+        <v>111663</v>
+      </c>
       <c r="C113" t="s">
         <v>161</v>
       </c>
@@ -5114,6 +5450,9 @@
       <c r="A114">
         <v>22</v>
       </c>
+      <c r="B114">
+        <v>111664</v>
+      </c>
       <c r="C114" t="s">
         <v>162</v>
       </c>
@@ -5134,6 +5473,9 @@
       <c r="A115">
         <v>23</v>
       </c>
+      <c r="B115">
+        <v>111665</v>
+      </c>
       <c r="C115" t="s">
         <v>163</v>
       </c>
@@ -5154,6 +5496,9 @@
       <c r="A116">
         <v>24</v>
       </c>
+      <c r="B116">
+        <v>111666</v>
+      </c>
       <c r="C116" t="s">
         <v>164</v>
       </c>
@@ -5174,6 +5519,9 @@
       <c r="A117">
         <v>25</v>
       </c>
+      <c r="B117">
+        <v>111667</v>
+      </c>
       <c r="C117" t="s">
         <v>166</v>
       </c>
@@ -5194,6 +5542,9 @@
       <c r="A118">
         <v>26</v>
       </c>
+      <c r="B118">
+        <v>111668</v>
+      </c>
       <c r="C118" t="s">
         <v>167</v>
       </c>
@@ -5214,6 +5565,9 @@
       <c r="A119">
         <v>27</v>
       </c>
+      <c r="B119">
+        <v>111669</v>
+      </c>
       <c r="C119" t="s">
         <v>168</v>
       </c>
@@ -5234,6 +5588,9 @@
       <c r="A120">
         <v>28</v>
       </c>
+      <c r="B120">
+        <v>111670</v>
+      </c>
       <c r="C120" t="s">
         <v>169</v>
       </c>
@@ -5254,6 +5611,9 @@
       <c r="A121">
         <v>29</v>
       </c>
+      <c r="B121">
+        <v>111671</v>
+      </c>
       <c r="C121" t="s">
         <v>170</v>
       </c>
@@ -5274,6 +5634,9 @@
       <c r="A122">
         <v>30</v>
       </c>
+      <c r="B122">
+        <v>111672</v>
+      </c>
       <c r="C122" t="s">
         <v>171</v>
       </c>
@@ -5294,6 +5657,9 @@
       <c r="A123">
         <v>31</v>
       </c>
+      <c r="B123">
+        <v>111673</v>
+      </c>
       <c r="C123" t="s">
         <v>172</v>
       </c>
@@ -5314,6 +5680,9 @@
       <c r="A124">
         <v>32</v>
       </c>
+      <c r="B124">
+        <v>111674</v>
+      </c>
       <c r="C124" t="s">
         <v>174</v>
       </c>
@@ -5334,6 +5703,9 @@
       <c r="A125">
         <v>33</v>
       </c>
+      <c r="B125">
+        <v>111675</v>
+      </c>
       <c r="C125" t="s">
         <v>175</v>
       </c>
@@ -5354,6 +5726,9 @@
       <c r="A126">
         <v>34</v>
       </c>
+      <c r="B126">
+        <v>111676</v>
+      </c>
       <c r="C126" t="s">
         <v>177</v>
       </c>
@@ -5374,6 +5749,9 @@
       <c r="A127">
         <v>35</v>
       </c>
+      <c r="B127">
+        <v>111677</v>
+      </c>
       <c r="C127" t="s">
         <v>178</v>
       </c>
@@ -5394,6 +5772,9 @@
       <c r="A128">
         <v>36</v>
       </c>
+      <c r="B128">
+        <v>111678</v>
+      </c>
       <c r="C128" t="s">
         <v>179</v>
       </c>
@@ -5414,6 +5795,9 @@
       <c r="A129">
         <v>37</v>
       </c>
+      <c r="B129">
+        <v>111679</v>
+      </c>
       <c r="C129" t="s">
         <v>180</v>
       </c>
@@ -5433,6 +5817,9 @@
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>38</v>
+      </c>
+      <c r="B130">
+        <v>111680</v>
       </c>
       <c r="C130" t="s">
         <v>181</v>
@@ -5454,6 +5841,9 @@
       <c r="A131">
         <v>39</v>
       </c>
+      <c r="B131">
+        <v>111681</v>
+      </c>
       <c r="C131" t="s">
         <v>182</v>
       </c>
@@ -5474,6 +5864,9 @@
       <c r="A132">
         <v>40</v>
       </c>
+      <c r="B132">
+        <v>111682</v>
+      </c>
       <c r="C132" t="s">
         <v>183</v>
       </c>
@@ -5494,6 +5887,9 @@
       <c r="A133">
         <v>41</v>
       </c>
+      <c r="B133">
+        <v>111683</v>
+      </c>
       <c r="C133" t="s">
         <v>184</v>
       </c>
@@ -5514,6 +5910,9 @@
       <c r="A134">
         <v>42</v>
       </c>
+      <c r="B134">
+        <v>111684</v>
+      </c>
       <c r="C134" t="s">
         <v>186</v>
       </c>
@@ -5534,6 +5933,9 @@
       <c r="A135">
         <v>43</v>
       </c>
+      <c r="B135">
+        <v>111685</v>
+      </c>
       <c r="C135" t="s">
         <v>187</v>
       </c>
@@ -5554,6 +5956,9 @@
       <c r="A136">
         <v>44</v>
       </c>
+      <c r="B136">
+        <v>111686</v>
+      </c>
       <c r="C136" t="s">
         <v>189</v>
       </c>
@@ -5574,6 +5979,9 @@
       <c r="A137">
         <v>45</v>
       </c>
+      <c r="B137">
+        <v>111687</v>
+      </c>
       <c r="C137" t="s">
         <v>190</v>
       </c>
@@ -5594,6 +6002,9 @@
       <c r="A138">
         <v>46</v>
       </c>
+      <c r="B138">
+        <v>111688</v>
+      </c>
       <c r="C138" t="s">
         <v>191</v>
       </c>
@@ -5614,6 +6025,9 @@
       <c r="A139">
         <v>47</v>
       </c>
+      <c r="B139">
+        <v>111689</v>
+      </c>
       <c r="C139" t="s">
         <v>192</v>
       </c>
@@ -5634,6 +6048,9 @@
       <c r="A140">
         <v>48</v>
       </c>
+      <c r="B140">
+        <v>111690</v>
+      </c>
       <c r="C140" t="s">
         <v>193</v>
       </c>
@@ -5654,6 +6071,9 @@
       <c r="A141">
         <v>49</v>
       </c>
+      <c r="B141">
+        <v>111691</v>
+      </c>
       <c r="C141" t="s">
         <v>194</v>
       </c>
@@ -5674,6 +6094,9 @@
       <c r="A142">
         <v>50</v>
       </c>
+      <c r="B142">
+        <v>111692</v>
+      </c>
       <c r="C142" t="s">
         <v>195</v>
       </c>
@@ -5694,6 +6117,9 @@
       <c r="A143">
         <v>51</v>
       </c>
+      <c r="B143">
+        <v>111693</v>
+      </c>
       <c r="C143" t="s">
         <v>196</v>
       </c>
@@ -5714,6 +6140,9 @@
       <c r="A144">
         <v>52</v>
       </c>
+      <c r="B144">
+        <v>111694</v>
+      </c>
       <c r="C144" t="s">
         <v>198</v>
       </c>
@@ -5734,6 +6163,9 @@
       <c r="A145">
         <v>53</v>
       </c>
+      <c r="B145">
+        <v>111695</v>
+      </c>
       <c r="C145" t="s">
         <v>199</v>
       </c>
@@ -5754,6 +6186,9 @@
       <c r="A146">
         <v>54</v>
       </c>
+      <c r="B146">
+        <v>111696</v>
+      </c>
       <c r="C146" t="s">
         <v>201</v>
       </c>
@@ -5774,6 +6209,9 @@
       <c r="A147">
         <v>55</v>
       </c>
+      <c r="B147">
+        <v>111697</v>
+      </c>
       <c r="C147" t="s">
         <v>202</v>
       </c>
@@ -5794,6 +6232,9 @@
       <c r="A148">
         <v>56</v>
       </c>
+      <c r="B148">
+        <v>111698</v>
+      </c>
       <c r="C148" t="s">
         <v>203</v>
       </c>
@@ -5814,6 +6255,9 @@
       <c r="A149">
         <v>57</v>
       </c>
+      <c r="B149">
+        <v>111699</v>
+      </c>
       <c r="C149" t="s">
         <v>204</v>
       </c>
@@ -5834,6 +6278,9 @@
       <c r="A150">
         <v>58</v>
       </c>
+      <c r="B150">
+        <v>111700</v>
+      </c>
       <c r="C150" t="s">
         <v>205</v>
       </c>
@@ -5854,6 +6301,9 @@
       <c r="A151">
         <v>59</v>
       </c>
+      <c r="B151">
+        <v>111701</v>
+      </c>
       <c r="C151" t="s">
         <v>206</v>
       </c>
@@ -5874,6 +6324,9 @@
       <c r="A152">
         <v>60</v>
       </c>
+      <c r="B152">
+        <v>111702</v>
+      </c>
       <c r="C152" t="s">
         <v>207</v>
       </c>
@@ -5894,6 +6347,9 @@
       <c r="A153">
         <v>61</v>
       </c>
+      <c r="B153">
+        <v>111703</v>
+      </c>
       <c r="C153" t="s">
         <v>208</v>
       </c>
@@ -5914,6 +6370,9 @@
       <c r="A154">
         <v>62</v>
       </c>
+      <c r="B154">
+        <v>111704</v>
+      </c>
       <c r="C154" t="s">
         <v>209</v>
       </c>
@@ -5934,6 +6393,9 @@
       <c r="A155">
         <v>63</v>
       </c>
+      <c r="B155">
+        <v>111705</v>
+      </c>
       <c r="C155" t="s">
         <v>210</v>
       </c>
@@ -5954,6 +6416,9 @@
       <c r="A156">
         <v>64</v>
       </c>
+      <c r="B156">
+        <v>111706</v>
+      </c>
       <c r="C156" t="s">
         <v>212</v>
       </c>
@@ -5974,6 +6439,9 @@
       <c r="A157">
         <v>65</v>
       </c>
+      <c r="B157">
+        <v>111707</v>
+      </c>
       <c r="C157" t="s">
         <v>213</v>
       </c>
@@ -5994,6 +6462,9 @@
       <c r="A158">
         <v>66</v>
       </c>
+      <c r="B158">
+        <v>111708</v>
+      </c>
       <c r="C158" t="s">
         <v>214</v>
       </c>
@@ -6014,6 +6485,9 @@
       <c r="A159">
         <v>67</v>
       </c>
+      <c r="B159">
+        <v>111709</v>
+      </c>
       <c r="C159" t="s">
         <v>215</v>
       </c>
@@ -6034,6 +6508,9 @@
       <c r="A160">
         <v>68</v>
       </c>
+      <c r="B160">
+        <v>111710</v>
+      </c>
       <c r="C160" t="s">
         <v>216</v>
       </c>
@@ -6054,6 +6531,9 @@
       <c r="A161">
         <v>69</v>
       </c>
+      <c r="B161">
+        <v>111711</v>
+      </c>
       <c r="C161" t="s">
         <v>217</v>
       </c>
@@ -6074,6 +6554,9 @@
       <c r="A162">
         <v>70</v>
       </c>
+      <c r="B162">
+        <v>111712</v>
+      </c>
       <c r="C162" t="s">
         <v>218</v>
       </c>
@@ -6094,6 +6577,9 @@
       <c r="A163">
         <v>71</v>
       </c>
+      <c r="B163">
+        <v>111713</v>
+      </c>
       <c r="C163" t="s">
         <v>219</v>
       </c>
@@ -6114,6 +6600,9 @@
       <c r="A164">
         <v>72</v>
       </c>
+      <c r="B164">
+        <v>111714</v>
+      </c>
       <c r="C164" t="s">
         <v>220</v>
       </c>
@@ -6134,6 +6623,9 @@
       <c r="A165">
         <v>73</v>
       </c>
+      <c r="B165">
+        <v>111715</v>
+      </c>
       <c r="C165" t="s">
         <v>221</v>
       </c>
@@ -6154,6 +6646,9 @@
       <c r="A166">
         <v>74</v>
       </c>
+      <c r="B166">
+        <v>111716</v>
+      </c>
       <c r="C166" t="s">
         <v>222</v>
       </c>
@@ -6174,6 +6669,9 @@
       <c r="A167">
         <v>75</v>
       </c>
+      <c r="B167">
+        <v>111717</v>
+      </c>
       <c r="C167" t="s">
         <v>223</v>
       </c>
@@ -6194,6 +6692,9 @@
       <c r="A168">
         <v>76</v>
       </c>
+      <c r="B168">
+        <v>111718</v>
+      </c>
       <c r="C168" t="s">
         <v>224</v>
       </c>
@@ -6214,6 +6715,9 @@
       <c r="A169">
         <v>77</v>
       </c>
+      <c r="B169">
+        <v>111719</v>
+      </c>
       <c r="C169" t="s">
         <v>225</v>
       </c>
@@ -6234,6 +6738,9 @@
       <c r="A170">
         <v>78</v>
       </c>
+      <c r="B170">
+        <v>111720</v>
+      </c>
       <c r="C170" t="s">
         <v>226</v>
       </c>
@@ -6254,6 +6761,9 @@
       <c r="A171">
         <v>79</v>
       </c>
+      <c r="B171">
+        <v>111721</v>
+      </c>
       <c r="C171" t="s">
         <v>227</v>
       </c>
@@ -6274,6 +6784,9 @@
       <c r="A172">
         <v>80</v>
       </c>
+      <c r="B172">
+        <v>111722</v>
+      </c>
       <c r="C172" t="s">
         <v>228</v>
       </c>
@@ -6294,6 +6807,9 @@
       <c r="A173">
         <v>81</v>
       </c>
+      <c r="B173">
+        <v>111723</v>
+      </c>
       <c r="C173" t="s">
         <v>230</v>
       </c>
@@ -6314,6 +6830,9 @@
       <c r="A174">
         <v>82</v>
       </c>
+      <c r="B174">
+        <v>111724</v>
+      </c>
       <c r="C174" t="s">
         <v>231</v>
       </c>
@@ -6334,6 +6853,9 @@
       <c r="A175">
         <v>83</v>
       </c>
+      <c r="B175">
+        <v>111725</v>
+      </c>
       <c r="C175" t="s">
         <v>232</v>
       </c>
@@ -6354,6 +6876,9 @@
       <c r="A176">
         <v>84</v>
       </c>
+      <c r="B176">
+        <v>111726</v>
+      </c>
       <c r="C176" t="s">
         <v>233</v>
       </c>
@@ -6374,6 +6899,9 @@
       <c r="A177">
         <v>85</v>
       </c>
+      <c r="B177">
+        <v>111727</v>
+      </c>
       <c r="C177" t="s">
         <v>234</v>
       </c>
@@ -6394,6 +6922,9 @@
       <c r="A178">
         <v>86</v>
       </c>
+      <c r="B178">
+        <v>111728</v>
+      </c>
       <c r="C178" t="s">
         <v>235</v>
       </c>
@@ -6414,6 +6945,9 @@
       <c r="A179">
         <v>87</v>
       </c>
+      <c r="B179">
+        <v>111729</v>
+      </c>
       <c r="C179" t="s">
         <v>236</v>
       </c>
@@ -6434,6 +6968,9 @@
       <c r="A180">
         <v>88</v>
       </c>
+      <c r="B180">
+        <v>111730</v>
+      </c>
       <c r="C180" t="s">
         <v>238</v>
       </c>
@@ -6454,6 +6991,9 @@
       <c r="A181">
         <v>89</v>
       </c>
+      <c r="B181">
+        <v>111731</v>
+      </c>
       <c r="C181" t="s">
         <v>239</v>
       </c>
@@ -6474,6 +7014,9 @@
       <c r="A182">
         <v>90</v>
       </c>
+      <c r="B182">
+        <v>111732</v>
+      </c>
       <c r="C182" t="s">
         <v>240</v>
       </c>
@@ -6494,6 +7037,9 @@
       <c r="A183">
         <v>91</v>
       </c>
+      <c r="B183">
+        <v>111733</v>
+      </c>
       <c r="C183" t="s">
         <v>241</v>
       </c>
@@ -6514,6 +7060,9 @@
       <c r="A184">
         <v>92</v>
       </c>
+      <c r="B184">
+        <v>111734</v>
+      </c>
       <c r="C184" t="s">
         <v>242</v>
       </c>
@@ -6534,6 +7083,9 @@
       <c r="A185">
         <v>93</v>
       </c>
+      <c r="B185">
+        <v>111735</v>
+      </c>
       <c r="C185" t="s">
         <v>243</v>
       </c>
@@ -6554,6 +7106,9 @@
       <c r="A186">
         <v>94</v>
       </c>
+      <c r="B186">
+        <v>111736</v>
+      </c>
       <c r="C186" t="s">
         <v>244</v>
       </c>
@@ -6574,6 +7129,9 @@
       <c r="A187">
         <v>95</v>
       </c>
+      <c r="B187">
+        <v>111737</v>
+      </c>
       <c r="C187" t="s">
         <v>245</v>
       </c>
@@ -6594,6 +7152,9 @@
       <c r="A188">
         <v>96</v>
       </c>
+      <c r="B188">
+        <v>111738</v>
+      </c>
       <c r="C188" t="s">
         <v>246</v>
       </c>
@@ -6614,6 +7175,9 @@
       <c r="A189">
         <v>97</v>
       </c>
+      <c r="B189">
+        <v>111739</v>
+      </c>
       <c r="C189" t="s">
         <v>247</v>
       </c>
@@ -6634,6 +7198,9 @@
       <c r="A190">
         <v>98</v>
       </c>
+      <c r="B190">
+        <v>111740</v>
+      </c>
       <c r="C190" t="s">
         <v>248</v>
       </c>
@@ -6654,6 +7221,9 @@
       <c r="A191">
         <v>99</v>
       </c>
+      <c r="B191">
+        <v>111741</v>
+      </c>
       <c r="C191" t="s">
         <v>249</v>
       </c>
@@ -6674,6 +7244,9 @@
       <c r="A192">
         <v>100</v>
       </c>
+      <c r="B192">
+        <v>111742</v>
+      </c>
       <c r="C192" t="s">
         <v>250</v>
       </c>
@@ -6694,6 +7267,9 @@
       <c r="A193">
         <v>101</v>
       </c>
+      <c r="B193">
+        <v>111743</v>
+      </c>
       <c r="C193" t="s">
         <v>251</v>
       </c>
@@ -6714,6 +7290,9 @@
       <c r="A194">
         <v>102</v>
       </c>
+      <c r="B194">
+        <v>111744</v>
+      </c>
       <c r="C194" t="s">
         <v>252</v>
       </c>
@@ -6734,6 +7313,9 @@
       <c r="A195">
         <v>103</v>
       </c>
+      <c r="B195">
+        <v>111745</v>
+      </c>
       <c r="C195" t="s">
         <v>253</v>
       </c>
@@ -6754,6 +7336,9 @@
       <c r="A196">
         <v>104</v>
       </c>
+      <c r="B196">
+        <v>111746</v>
+      </c>
       <c r="C196" t="s">
         <v>254</v>
       </c>
@@ -6774,6 +7359,9 @@
       <c r="A197">
         <v>105</v>
       </c>
+      <c r="B197">
+        <v>111747</v>
+      </c>
       <c r="C197" t="s">
         <v>255</v>
       </c>
@@ -6794,6 +7382,9 @@
       <c r="A198">
         <v>106</v>
       </c>
+      <c r="B198">
+        <v>111748</v>
+      </c>
       <c r="C198" t="s">
         <v>256</v>
       </c>
@@ -6814,6 +7405,9 @@
       <c r="A199">
         <v>107</v>
       </c>
+      <c r="B199">
+        <v>111749</v>
+      </c>
       <c r="C199" t="s">
         <v>257</v>
       </c>
@@ -6834,6 +7428,9 @@
       <c r="A200">
         <v>108</v>
       </c>
+      <c r="B200">
+        <v>111750</v>
+      </c>
       <c r="C200" t="s">
         <v>258</v>
       </c>
@@ -6854,6 +7451,9 @@
       <c r="A201">
         <v>109</v>
       </c>
+      <c r="B201">
+        <v>111751</v>
+      </c>
       <c r="C201" t="s">
         <v>259</v>
       </c>
@@ -6874,6 +7474,9 @@
       <c r="A202">
         <v>110</v>
       </c>
+      <c r="B202">
+        <v>111752</v>
+      </c>
       <c r="C202" t="s">
         <v>260</v>
       </c>
@@ -6894,6 +7497,9 @@
       <c r="A203">
         <v>111</v>
       </c>
+      <c r="B203">
+        <v>111753</v>
+      </c>
       <c r="C203" t="s">
         <v>261</v>
       </c>
@@ -6914,6 +7520,9 @@
       <c r="A204">
         <v>112</v>
       </c>
+      <c r="B204">
+        <v>111754</v>
+      </c>
       <c r="C204" t="s">
         <v>262</v>
       </c>
@@ -6934,6 +7543,9 @@
       <c r="A205">
         <v>113</v>
       </c>
+      <c r="B205">
+        <v>111755</v>
+      </c>
       <c r="C205" t="s">
         <v>263</v>
       </c>
@@ -6954,6 +7566,9 @@
       <c r="A206">
         <v>114</v>
       </c>
+      <c r="B206">
+        <v>111756</v>
+      </c>
       <c r="C206" t="s">
         <v>264</v>
       </c>
@@ -6974,6 +7589,9 @@
       <c r="A207">
         <v>115</v>
       </c>
+      <c r="B207">
+        <v>111757</v>
+      </c>
       <c r="C207" t="s">
         <v>265</v>
       </c>
@@ -6994,6 +7612,9 @@
       <c r="A208">
         <v>116</v>
       </c>
+      <c r="B208">
+        <v>111758</v>
+      </c>
       <c r="C208" t="s">
         <v>267</v>
       </c>
@@ -7014,6 +7635,9 @@
       <c r="A209">
         <v>117</v>
       </c>
+      <c r="B209">
+        <v>111759</v>
+      </c>
       <c r="C209" t="s">
         <v>268</v>
       </c>
@@ -7034,6 +7658,9 @@
       <c r="A210">
         <v>118</v>
       </c>
+      <c r="B210">
+        <v>111760</v>
+      </c>
       <c r="C210" t="s">
         <v>269</v>
       </c>
@@ -7054,6 +7681,9 @@
       <c r="A211">
         <v>119</v>
       </c>
+      <c r="B211">
+        <v>111761</v>
+      </c>
       <c r="C211" t="s">
         <v>270</v>
       </c>
@@ -7074,6 +7704,9 @@
       <c r="A212">
         <v>120</v>
       </c>
+      <c r="B212">
+        <v>111762</v>
+      </c>
       <c r="C212" t="s">
         <v>271</v>
       </c>
@@ -7094,6 +7727,9 @@
       <c r="A213">
         <v>121</v>
       </c>
+      <c r="B213">
+        <v>111763</v>
+      </c>
       <c r="C213" t="s">
         <v>272</v>
       </c>
@@ -7114,6 +7750,9 @@
       <c r="A214">
         <v>122</v>
       </c>
+      <c r="B214">
+        <v>111764</v>
+      </c>
       <c r="C214" t="s">
         <v>273</v>
       </c>
@@ -7134,6 +7773,9 @@
       <c r="A215">
         <v>123</v>
       </c>
+      <c r="B215">
+        <v>111765</v>
+      </c>
       <c r="C215" t="s">
         <v>274</v>
       </c>
@@ -7154,6 +7796,9 @@
       <c r="A216">
         <v>124</v>
       </c>
+      <c r="B216">
+        <v>111766</v>
+      </c>
       <c r="C216" t="s">
         <v>275</v>
       </c>
@@ -7174,6 +7819,9 @@
       <c r="A217">
         <v>125</v>
       </c>
+      <c r="B217">
+        <v>111767</v>
+      </c>
       <c r="C217" t="s">
         <v>276</v>
       </c>
@@ -7194,6 +7842,9 @@
       <c r="A218">
         <v>126</v>
       </c>
+      <c r="B218">
+        <v>111768</v>
+      </c>
       <c r="C218" t="s">
         <v>277</v>
       </c>
@@ -7214,6 +7865,9 @@
       <c r="A219">
         <v>127</v>
       </c>
+      <c r="B219">
+        <v>111769</v>
+      </c>
       <c r="C219" t="s">
         <v>278</v>
       </c>
@@ -7234,6 +7888,9 @@
       <c r="A220">
         <v>128</v>
       </c>
+      <c r="B220">
+        <v>111770</v>
+      </c>
       <c r="C220" t="s">
         <v>279</v>
       </c>
@@ -7254,6 +7911,9 @@
       <c r="A221">
         <v>129</v>
       </c>
+      <c r="B221">
+        <v>111771</v>
+      </c>
       <c r="C221" t="s">
         <v>280</v>
       </c>
@@ -7274,6 +7934,9 @@
       <c r="A222">
         <v>130</v>
       </c>
+      <c r="B222">
+        <v>111772</v>
+      </c>
       <c r="C222" t="s">
         <v>282</v>
       </c>
@@ -7294,6 +7957,9 @@
       <c r="A223">
         <v>131</v>
       </c>
+      <c r="B223">
+        <v>111773</v>
+      </c>
       <c r="C223" t="s">
         <v>283</v>
       </c>
@@ -7314,6 +7980,9 @@
       <c r="A224">
         <v>132</v>
       </c>
+      <c r="B224">
+        <v>111774</v>
+      </c>
       <c r="C224" t="s">
         <v>284</v>
       </c>
@@ -7334,6 +8003,9 @@
       <c r="A225">
         <v>133</v>
       </c>
+      <c r="B225">
+        <v>111775</v>
+      </c>
       <c r="C225" t="s">
         <v>285</v>
       </c>
@@ -7354,6 +8026,9 @@
       <c r="A226">
         <v>134</v>
       </c>
+      <c r="B226">
+        <v>111776</v>
+      </c>
       <c r="C226" t="s">
         <v>286</v>
       </c>
@@ -7374,6 +8049,9 @@
       <c r="A227">
         <v>135</v>
       </c>
+      <c r="B227">
+        <v>111777</v>
+      </c>
       <c r="C227" t="s">
         <v>287</v>
       </c>
@@ -7394,6 +8072,9 @@
       <c r="A228">
         <v>136</v>
       </c>
+      <c r="B228">
+        <v>111778</v>
+      </c>
       <c r="C228" t="s">
         <v>288</v>
       </c>
@@ -7414,6 +8095,9 @@
       <c r="A229">
         <v>137</v>
       </c>
+      <c r="B229">
+        <v>111779</v>
+      </c>
       <c r="C229" t="s">
         <v>289</v>
       </c>
@@ -7434,6 +8118,9 @@
       <c r="A230">
         <v>138</v>
       </c>
+      <c r="B230">
+        <v>111780</v>
+      </c>
       <c r="C230" t="s">
         <v>290</v>
       </c>
@@ -7454,6 +8141,9 @@
       <c r="A231">
         <v>139</v>
       </c>
+      <c r="B231">
+        <v>111781</v>
+      </c>
       <c r="C231" t="s">
         <v>292</v>
       </c>
@@ -7474,6 +8164,9 @@
       <c r="A232">
         <v>140</v>
       </c>
+      <c r="B232">
+        <v>111782</v>
+      </c>
       <c r="C232" t="s">
         <v>293</v>
       </c>
@@ -7494,6 +8187,9 @@
       <c r="A233">
         <v>141</v>
       </c>
+      <c r="B233">
+        <v>111783</v>
+      </c>
       <c r="C233" t="s">
         <v>294</v>
       </c>
@@ -7514,6 +8210,9 @@
       <c r="A234">
         <v>142</v>
       </c>
+      <c r="B234">
+        <v>111784</v>
+      </c>
       <c r="C234" t="s">
         <v>295</v>
       </c>
@@ -7534,6 +8233,9 @@
       <c r="A235">
         <v>143</v>
       </c>
+      <c r="B235">
+        <v>111785</v>
+      </c>
       <c r="C235" t="s">
         <v>296</v>
       </c>
@@ -7554,6 +8256,9 @@
       <c r="A236">
         <v>144</v>
       </c>
+      <c r="B236">
+        <v>111786</v>
+      </c>
       <c r="C236" t="s">
         <v>297</v>
       </c>
@@ -7574,6 +8279,9 @@
       <c r="A237">
         <v>145</v>
       </c>
+      <c r="B237">
+        <v>111787</v>
+      </c>
       <c r="C237" t="s">
         <v>298</v>
       </c>
@@ -7594,6 +8302,9 @@
       <c r="A238">
         <v>146</v>
       </c>
+      <c r="B238">
+        <v>111788</v>
+      </c>
       <c r="C238" t="s">
         <v>299</v>
       </c>
@@ -7614,6 +8325,9 @@
       <c r="A239">
         <v>147</v>
       </c>
+      <c r="B239">
+        <v>111789</v>
+      </c>
       <c r="C239" t="s">
         <v>300</v>
       </c>
@@ -7634,6 +8348,9 @@
       <c r="A240">
         <v>148</v>
       </c>
+      <c r="B240">
+        <v>111790</v>
+      </c>
       <c r="C240" t="s">
         <v>301</v>
       </c>
@@ -7654,6 +8371,9 @@
       <c r="A241">
         <v>149</v>
       </c>
+      <c r="B241">
+        <v>111791</v>
+      </c>
       <c r="C241" t="s">
         <v>302</v>
       </c>
@@ -7674,6 +8394,9 @@
       <c r="A242">
         <v>150</v>
       </c>
+      <c r="B242">
+        <v>111792</v>
+      </c>
       <c r="C242" t="s">
         <v>303</v>
       </c>
@@ -7694,6 +8417,9 @@
       <c r="A243">
         <v>151</v>
       </c>
+      <c r="B243">
+        <v>111793</v>
+      </c>
       <c r="C243" t="s">
         <v>304</v>
       </c>
@@ -7714,6 +8440,9 @@
       <c r="A244">
         <v>152</v>
       </c>
+      <c r="B244">
+        <v>111794</v>
+      </c>
       <c r="C244" t="s">
         <v>305</v>
       </c>
@@ -7734,6 +8463,9 @@
       <c r="A245">
         <v>153</v>
       </c>
+      <c r="B245">
+        <v>111795</v>
+      </c>
       <c r="C245" t="s">
         <v>306</v>
       </c>
@@ -7754,6 +8486,9 @@
       <c r="A246">
         <v>154</v>
       </c>
+      <c r="B246">
+        <v>111796</v>
+      </c>
       <c r="C246" t="s">
         <v>308</v>
       </c>
@@ -7774,6 +8509,9 @@
       <c r="A247">
         <v>155</v>
       </c>
+      <c r="B247">
+        <v>111797</v>
+      </c>
       <c r="C247" t="s">
         <v>309</v>
       </c>
@@ -7794,6 +8532,9 @@
       <c r="A248">
         <v>156</v>
       </c>
+      <c r="B248">
+        <v>111798</v>
+      </c>
       <c r="C248" t="s">
         <v>310</v>
       </c>
@@ -7814,6 +8555,9 @@
       <c r="A249">
         <v>157</v>
       </c>
+      <c r="B249">
+        <v>111799</v>
+      </c>
       <c r="C249" t="s">
         <v>311</v>
       </c>
@@ -7834,6 +8578,9 @@
       <c r="A250">
         <v>158</v>
       </c>
+      <c r="B250">
+        <v>111800</v>
+      </c>
       <c r="C250" t="s">
         <v>312</v>
       </c>
@@ -7854,6 +8601,9 @@
       <c r="A251">
         <v>159</v>
       </c>
+      <c r="B251">
+        <v>111801</v>
+      </c>
       <c r="C251" t="s">
         <v>313</v>
       </c>
@@ -7874,6 +8624,9 @@
       <c r="A252">
         <v>160</v>
       </c>
+      <c r="B252">
+        <v>111802</v>
+      </c>
       <c r="C252" t="s">
         <v>314</v>
       </c>
@@ -7894,6 +8647,9 @@
       <c r="A253">
         <v>161</v>
       </c>
+      <c r="B253">
+        <v>111803</v>
+      </c>
       <c r="C253" t="s">
         <v>315</v>
       </c>
@@ -7914,6 +8670,9 @@
       <c r="A254">
         <v>162</v>
       </c>
+      <c r="B254">
+        <v>111804</v>
+      </c>
       <c r="C254" t="s">
         <v>316</v>
       </c>
@@ -7934,6 +8693,9 @@
       <c r="A255">
         <v>163</v>
       </c>
+      <c r="B255">
+        <v>111805</v>
+      </c>
       <c r="C255" t="s">
         <v>317</v>
       </c>
@@ -7954,6 +8716,9 @@
       <c r="A256">
         <v>164</v>
       </c>
+      <c r="B256">
+        <v>111806</v>
+      </c>
       <c r="C256" t="s">
         <v>318</v>
       </c>
@@ -7974,6 +8739,9 @@
       <c r="A257">
         <v>165</v>
       </c>
+      <c r="B257">
+        <v>111807</v>
+      </c>
       <c r="C257" t="s">
         <v>320</v>
       </c>
@@ -7994,6 +8762,9 @@
       <c r="A258">
         <v>166</v>
       </c>
+      <c r="B258">
+        <v>111808</v>
+      </c>
       <c r="C258" t="s">
         <v>322</v>
       </c>
@@ -8014,6 +8785,9 @@
       <c r="A259">
         <v>167</v>
       </c>
+      <c r="B259">
+        <v>111809</v>
+      </c>
       <c r="C259" t="s">
         <v>323</v>
       </c>
@@ -8034,6 +8808,9 @@
       <c r="A260">
         <v>168</v>
       </c>
+      <c r="B260">
+        <v>111810</v>
+      </c>
       <c r="C260" t="s">
         <v>324</v>
       </c>
@@ -8054,6 +8831,9 @@
       <c r="A261">
         <v>169</v>
       </c>
+      <c r="B261">
+        <v>111811</v>
+      </c>
       <c r="C261" t="s">
         <v>325</v>
       </c>
@@ -8074,6 +8854,9 @@
       <c r="A262">
         <v>170</v>
       </c>
+      <c r="B262">
+        <v>111812</v>
+      </c>
       <c r="C262" t="s">
         <v>326</v>
       </c>
@@ -8094,6 +8877,9 @@
       <c r="A263">
         <v>171</v>
       </c>
+      <c r="B263">
+        <v>111813</v>
+      </c>
       <c r="C263" t="s">
         <v>327</v>
       </c>
@@ -8114,6 +8900,9 @@
       <c r="A264">
         <v>172</v>
       </c>
+      <c r="B264">
+        <v>111814</v>
+      </c>
       <c r="C264" t="s">
         <v>328</v>
       </c>
@@ -8134,6 +8923,9 @@
       <c r="A265">
         <v>173</v>
       </c>
+      <c r="B265">
+        <v>111815</v>
+      </c>
       <c r="C265" t="s">
         <v>329</v>
       </c>
@@ -8154,6 +8946,9 @@
       <c r="A266">
         <v>174</v>
       </c>
+      <c r="B266">
+        <v>111816</v>
+      </c>
       <c r="C266" t="s">
         <v>330</v>
       </c>
@@ -8174,6 +8969,9 @@
       <c r="A267">
         <v>175</v>
       </c>
+      <c r="B267">
+        <v>111817</v>
+      </c>
       <c r="C267" t="s">
         <v>331</v>
       </c>
@@ -8194,6 +8992,9 @@
       <c r="A268">
         <v>176</v>
       </c>
+      <c r="B268">
+        <v>111818</v>
+      </c>
       <c r="C268" t="s">
         <v>332</v>
       </c>
@@ -8214,6 +9015,9 @@
       <c r="A269">
         <v>177</v>
       </c>
+      <c r="B269">
+        <v>111819</v>
+      </c>
       <c r="C269" t="s">
         <v>334</v>
       </c>
@@ -8234,6 +9038,9 @@
       <c r="A270">
         <v>178</v>
       </c>
+      <c r="B270">
+        <v>111820</v>
+      </c>
       <c r="C270" t="s">
         <v>335</v>
       </c>
@@ -8254,6 +9061,9 @@
       <c r="A271">
         <v>179</v>
       </c>
+      <c r="B271">
+        <v>111821</v>
+      </c>
       <c r="C271" t="s">
         <v>336</v>
       </c>
@@ -8274,6 +9084,9 @@
       <c r="A272">
         <v>180</v>
       </c>
+      <c r="B272">
+        <v>111822</v>
+      </c>
       <c r="C272" t="s">
         <v>337</v>
       </c>
@@ -8294,6 +9107,9 @@
       <c r="A273">
         <v>181</v>
       </c>
+      <c r="B273">
+        <v>111823</v>
+      </c>
       <c r="C273" t="s">
         <v>338</v>
       </c>
@@ -8314,6 +9130,9 @@
       <c r="A274">
         <v>182</v>
       </c>
+      <c r="B274">
+        <v>111824</v>
+      </c>
       <c r="C274" t="s">
         <v>339</v>
       </c>
@@ -8334,6 +9153,9 @@
       <c r="A275">
         <v>183</v>
       </c>
+      <c r="B275">
+        <v>111825</v>
+      </c>
       <c r="C275" t="s">
         <v>340</v>
       </c>
@@ -8354,6 +9176,9 @@
       <c r="A276">
         <v>184</v>
       </c>
+      <c r="B276">
+        <v>111826</v>
+      </c>
       <c r="C276" t="s">
         <v>341</v>
       </c>
@@ -8374,6 +9199,9 @@
       <c r="A277">
         <v>185</v>
       </c>
+      <c r="B277">
+        <v>111827</v>
+      </c>
       <c r="C277" t="s">
         <v>342</v>
       </c>
@@ -8394,6 +9222,9 @@
       <c r="A278">
         <v>186</v>
       </c>
+      <c r="B278">
+        <v>111828</v>
+      </c>
       <c r="C278" t="s">
         <v>343</v>
       </c>
@@ -8414,6 +9245,9 @@
       <c r="A279">
         <v>187</v>
       </c>
+      <c r="B279">
+        <v>111829</v>
+      </c>
       <c r="C279" t="s">
         <v>344</v>
       </c>
@@ -8434,6 +9268,9 @@
       <c r="A280">
         <v>188</v>
       </c>
+      <c r="B280">
+        <v>111830</v>
+      </c>
       <c r="C280" t="s">
         <v>345</v>
       </c>
@@ -8454,6 +9291,9 @@
       <c r="A281">
         <v>189</v>
       </c>
+      <c r="B281">
+        <v>111831</v>
+      </c>
       <c r="C281" t="s">
         <v>346</v>
       </c>
@@ -8474,6 +9314,9 @@
       <c r="A282">
         <v>190</v>
       </c>
+      <c r="B282">
+        <v>111832</v>
+      </c>
       <c r="C282" t="s">
         <v>347</v>
       </c>
@@ -8494,6 +9337,9 @@
       <c r="A283">
         <v>191</v>
       </c>
+      <c r="B283">
+        <v>111833</v>
+      </c>
       <c r="C283" t="s">
         <v>348</v>
       </c>
@@ -8514,6 +9360,9 @@
       <c r="A284">
         <v>192</v>
       </c>
+      <c r="B284">
+        <v>111834</v>
+      </c>
       <c r="C284" t="s">
         <v>350</v>
       </c>
@@ -8534,6 +9383,9 @@
       <c r="A285">
         <v>193</v>
       </c>
+      <c r="B285">
+        <v>111835</v>
+      </c>
       <c r="C285" t="s">
         <v>351</v>
       </c>
@@ -8554,6 +9406,9 @@
       <c r="A286">
         <v>194</v>
       </c>
+      <c r="B286">
+        <v>111836</v>
+      </c>
       <c r="C286" t="s">
         <v>352</v>
       </c>
@@ -8574,6 +9429,9 @@
       <c r="A287">
         <v>195</v>
       </c>
+      <c r="B287">
+        <v>111837</v>
+      </c>
       <c r="C287" t="s">
         <v>353</v>
       </c>
@@ -8594,6 +9452,9 @@
       <c r="A288">
         <v>196</v>
       </c>
+      <c r="B288">
+        <v>111838</v>
+      </c>
       <c r="C288" t="s">
         <v>354</v>
       </c>
@@ -8614,6 +9475,9 @@
       <c r="A289">
         <v>197</v>
       </c>
+      <c r="B289">
+        <v>111839</v>
+      </c>
       <c r="C289" t="s">
         <v>355</v>
       </c>
@@ -8634,6 +9498,9 @@
       <c r="A290">
         <v>198</v>
       </c>
+      <c r="B290">
+        <v>111840</v>
+      </c>
       <c r="C290" t="s">
         <v>356</v>
       </c>
@@ -8654,6 +9521,9 @@
       <c r="A291">
         <v>199</v>
       </c>
+      <c r="B291">
+        <v>111841</v>
+      </c>
       <c r="C291" t="s">
         <v>357</v>
       </c>
@@ -8674,6 +9544,9 @@
       <c r="A292">
         <v>200</v>
       </c>
+      <c r="B292">
+        <v>111842</v>
+      </c>
       <c r="C292" t="s">
         <v>358</v>
       </c>
@@ -8694,6 +9567,9 @@
       <c r="A293">
         <v>201</v>
       </c>
+      <c r="B293">
+        <v>111843</v>
+      </c>
       <c r="C293" t="s">
         <v>359</v>
       </c>
@@ -8714,6 +9590,9 @@
       <c r="A294">
         <v>202</v>
       </c>
+      <c r="B294">
+        <v>111844</v>
+      </c>
       <c r="C294" t="s">
         <v>360</v>
       </c>
@@ -8734,6 +9613,9 @@
       <c r="A295">
         <v>203</v>
       </c>
+      <c r="B295">
+        <v>111845</v>
+      </c>
       <c r="C295" t="s">
         <v>361</v>
       </c>
@@ -8754,6 +9636,9 @@
       <c r="A296">
         <v>204</v>
       </c>
+      <c r="B296">
+        <v>111846</v>
+      </c>
       <c r="C296" t="s">
         <v>362</v>
       </c>
@@ -8774,6 +9659,9 @@
       <c r="A297">
         <v>205</v>
       </c>
+      <c r="B297">
+        <v>111847</v>
+      </c>
       <c r="C297" t="s">
         <v>363</v>
       </c>
@@ -8794,6 +9682,9 @@
       <c r="A298">
         <v>206</v>
       </c>
+      <c r="B298">
+        <v>111848</v>
+      </c>
       <c r="C298" t="s">
         <v>364</v>
       </c>
@@ -8814,6 +9705,9 @@
       <c r="A299">
         <v>207</v>
       </c>
+      <c r="B299">
+        <v>111849</v>
+      </c>
       <c r="C299" t="s">
         <v>365</v>
       </c>
@@ -8834,6 +9728,9 @@
       <c r="A300">
         <v>208</v>
       </c>
+      <c r="B300">
+        <v>111850</v>
+      </c>
       <c r="C300" t="s">
         <v>366</v>
       </c>
@@ -8854,6 +9751,9 @@
       <c r="A301">
         <v>209</v>
       </c>
+      <c r="B301">
+        <v>111851</v>
+      </c>
       <c r="C301" t="s">
         <v>367</v>
       </c>
@@ -8874,6 +9774,9 @@
       <c r="A302">
         <v>210</v>
       </c>
+      <c r="B302">
+        <v>111852</v>
+      </c>
       <c r="C302" t="s">
         <v>368</v>
       </c>
@@ -8894,6 +9797,9 @@
       <c r="A303">
         <v>211</v>
       </c>
+      <c r="B303">
+        <v>111853</v>
+      </c>
       <c r="C303" t="s">
         <v>369</v>
       </c>
@@ -8914,6 +9820,9 @@
       <c r="A304">
         <v>212</v>
       </c>
+      <c r="B304">
+        <v>111854</v>
+      </c>
       <c r="C304" t="s">
         <v>370</v>
       </c>
@@ -8934,6 +9843,9 @@
       <c r="A305">
         <v>213</v>
       </c>
+      <c r="B305">
+        <v>111855</v>
+      </c>
       <c r="C305" t="s">
         <v>371</v>
       </c>
@@ -8954,6 +9866,9 @@
       <c r="A306">
         <v>214</v>
       </c>
+      <c r="B306">
+        <v>111856</v>
+      </c>
       <c r="C306" t="s">
         <v>373</v>
       </c>
@@ -8974,6 +9889,9 @@
       <c r="A307">
         <v>215</v>
       </c>
+      <c r="B307">
+        <v>111857</v>
+      </c>
       <c r="C307" t="s">
         <v>374</v>
       </c>
@@ -8994,6 +9912,9 @@
       <c r="A308">
         <v>216</v>
       </c>
+      <c r="B308">
+        <v>111858</v>
+      </c>
       <c r="C308" t="s">
         <v>375</v>
       </c>
@@ -9014,6 +9935,9 @@
       <c r="A309">
         <v>217</v>
       </c>
+      <c r="B309">
+        <v>111859</v>
+      </c>
       <c r="C309" t="s">
         <v>376</v>
       </c>
@@ -9034,6 +9958,9 @@
       <c r="A310">
         <v>218</v>
       </c>
+      <c r="B310">
+        <v>111860</v>
+      </c>
       <c r="C310" t="s">
         <v>377</v>
       </c>
@@ -9054,6 +9981,9 @@
       <c r="A311">
         <v>219</v>
       </c>
+      <c r="B311">
+        <v>111861</v>
+      </c>
       <c r="C311" t="s">
         <v>378</v>
       </c>
@@ -9074,6 +10004,9 @@
       <c r="A312">
         <v>220</v>
       </c>
+      <c r="B312">
+        <v>111862</v>
+      </c>
       <c r="C312" t="s">
         <v>379</v>
       </c>
@@ -9094,6 +10027,9 @@
       <c r="A313">
         <v>221</v>
       </c>
+      <c r="B313">
+        <v>111863</v>
+      </c>
       <c r="C313" t="s">
         <v>380</v>
       </c>
@@ -9114,6 +10050,9 @@
       <c r="A314">
         <v>222</v>
       </c>
+      <c r="B314">
+        <v>111864</v>
+      </c>
       <c r="C314" t="s">
         <v>381</v>
       </c>
@@ -9134,6 +10073,9 @@
       <c r="A315">
         <v>223</v>
       </c>
+      <c r="B315">
+        <v>111865</v>
+      </c>
       <c r="C315" t="s">
         <v>382</v>
       </c>
@@ -9154,6 +10096,9 @@
       <c r="A316">
         <v>224</v>
       </c>
+      <c r="B316">
+        <v>111866</v>
+      </c>
       <c r="C316" t="s">
         <v>383</v>
       </c>
@@ -9174,6 +10119,9 @@
       <c r="A317">
         <v>225</v>
       </c>
+      <c r="B317">
+        <v>111867</v>
+      </c>
       <c r="C317" t="s">
         <v>384</v>
       </c>
@@ -9194,6 +10142,9 @@
       <c r="A318">
         <v>226</v>
       </c>
+      <c r="B318">
+        <v>111868</v>
+      </c>
       <c r="C318" t="s">
         <v>386</v>
       </c>
@@ -9214,6 +10165,9 @@
       <c r="A319">
         <v>227</v>
       </c>
+      <c r="B319">
+        <v>111869</v>
+      </c>
       <c r="C319" t="s">
         <v>387</v>
       </c>
@@ -9234,6 +10188,9 @@
       <c r="A320">
         <v>228</v>
       </c>
+      <c r="B320">
+        <v>111870</v>
+      </c>
       <c r="C320" t="s">
         <v>388</v>
       </c>
@@ -9254,6 +10211,9 @@
       <c r="A321">
         <v>229</v>
       </c>
+      <c r="B321">
+        <v>111871</v>
+      </c>
       <c r="C321" t="s">
         <v>389</v>
       </c>
@@ -9274,6 +10234,9 @@
       <c r="A322">
         <v>230</v>
       </c>
+      <c r="B322">
+        <v>111872</v>
+      </c>
       <c r="C322" t="s">
         <v>390</v>
       </c>
@@ -9294,6 +10257,9 @@
       <c r="A323">
         <v>231</v>
       </c>
+      <c r="B323">
+        <v>111873</v>
+      </c>
       <c r="C323" t="s">
         <v>391</v>
       </c>
@@ -9314,6 +10280,9 @@
       <c r="A324">
         <v>232</v>
       </c>
+      <c r="B324">
+        <v>111874</v>
+      </c>
       <c r="C324" t="s">
         <v>392</v>
       </c>
@@ -9334,6 +10303,9 @@
       <c r="A325">
         <v>233</v>
       </c>
+      <c r="B325">
+        <v>111875</v>
+      </c>
       <c r="C325" t="s">
         <v>393</v>
       </c>
@@ -9354,6 +10326,9 @@
       <c r="A326">
         <v>234</v>
       </c>
+      <c r="B326">
+        <v>111876</v>
+      </c>
       <c r="C326" t="s">
         <v>394</v>
       </c>
@@ -9374,6 +10349,9 @@
       <c r="A327">
         <v>235</v>
       </c>
+      <c r="B327">
+        <v>111877</v>
+      </c>
       <c r="C327" t="s">
         <v>395</v>
       </c>
@@ -9394,6 +10372,9 @@
       <c r="A328">
         <v>236</v>
       </c>
+      <c r="B328">
+        <v>111878</v>
+      </c>
       <c r="C328" t="s">
         <v>396</v>
       </c>
@@ -9414,6 +10395,9 @@
       <c r="A329">
         <v>237</v>
       </c>
+      <c r="B329">
+        <v>111879</v>
+      </c>
       <c r="C329" t="s">
         <v>397</v>
       </c>
@@ -9434,6 +10418,9 @@
       <c r="A330">
         <v>238</v>
       </c>
+      <c r="B330">
+        <v>111880</v>
+      </c>
       <c r="C330" t="s">
         <v>398</v>
       </c>
@@ -9454,6 +10441,9 @@
       <c r="A331">
         <v>239</v>
       </c>
+      <c r="B331">
+        <v>111881</v>
+      </c>
       <c r="C331" t="s">
         <v>399</v>
       </c>
@@ -9474,6 +10464,9 @@
       <c r="A332">
         <v>240</v>
       </c>
+      <c r="B332">
+        <v>111882</v>
+      </c>
       <c r="C332" t="s">
         <v>400</v>
       </c>
@@ -9494,6 +10487,9 @@
       <c r="A333">
         <v>241</v>
       </c>
+      <c r="B333">
+        <v>111883</v>
+      </c>
       <c r="C333" t="s">
         <v>401</v>
       </c>
@@ -9514,6 +10510,9 @@
       <c r="A334">
         <v>242</v>
       </c>
+      <c r="B334">
+        <v>111884</v>
+      </c>
       <c r="C334" t="s">
         <v>403</v>
       </c>
@@ -9534,6 +10533,9 @@
       <c r="A335">
         <v>243</v>
       </c>
+      <c r="B335">
+        <v>111885</v>
+      </c>
       <c r="C335" t="s">
         <v>404</v>
       </c>
@@ -9554,6 +10556,9 @@
       <c r="A336">
         <v>244</v>
       </c>
+      <c r="B336">
+        <v>111886</v>
+      </c>
       <c r="C336" t="s">
         <v>405</v>
       </c>
@@ -9574,6 +10579,9 @@
       <c r="A337">
         <v>245</v>
       </c>
+      <c r="B337">
+        <v>111887</v>
+      </c>
       <c r="C337" t="s">
         <v>406</v>
       </c>
@@ -9594,6 +10602,9 @@
       <c r="A338">
         <v>246</v>
       </c>
+      <c r="B338">
+        <v>111888</v>
+      </c>
       <c r="C338" t="s">
         <v>407</v>
       </c>
@@ -9614,6 +10625,9 @@
       <c r="A339">
         <v>247</v>
       </c>
+      <c r="B339">
+        <v>111889</v>
+      </c>
       <c r="C339" t="s">
         <v>408</v>
       </c>
@@ -9634,6 +10648,9 @@
       <c r="A340">
         <v>248</v>
       </c>
+      <c r="B340">
+        <v>111890</v>
+      </c>
       <c r="C340" t="s">
         <v>409</v>
       </c>
@@ -9654,6 +10671,9 @@
       <c r="A341">
         <v>249</v>
       </c>
+      <c r="B341">
+        <v>111891</v>
+      </c>
       <c r="C341" t="s">
         <v>410</v>
       </c>
@@ -9674,6 +10694,9 @@
       <c r="A342">
         <v>250</v>
       </c>
+      <c r="B342">
+        <v>111892</v>
+      </c>
       <c r="C342" t="s">
         <v>411</v>
       </c>
@@ -9694,6 +10717,9 @@
       <c r="A343">
         <v>251</v>
       </c>
+      <c r="B343">
+        <v>111893</v>
+      </c>
       <c r="C343" t="s">
         <v>413</v>
       </c>
@@ -9714,6 +10740,9 @@
       <c r="A344">
         <v>252</v>
       </c>
+      <c r="B344">
+        <v>111894</v>
+      </c>
       <c r="C344" t="s">
         <v>414</v>
       </c>
@@ -9734,6 +10763,9 @@
       <c r="A345">
         <v>253</v>
       </c>
+      <c r="B345">
+        <v>111895</v>
+      </c>
       <c r="C345" t="s">
         <v>415</v>
       </c>
@@ -9754,6 +10786,9 @@
       <c r="A346">
         <v>254</v>
       </c>
+      <c r="B346">
+        <v>111896</v>
+      </c>
       <c r="C346" t="s">
         <v>416</v>
       </c>
@@ -9774,6 +10809,9 @@
       <c r="A347">
         <v>255</v>
       </c>
+      <c r="B347">
+        <v>111897</v>
+      </c>
       <c r="C347" t="s">
         <v>417</v>
       </c>
@@ -9794,6 +10832,9 @@
       <c r="A348">
         <v>256</v>
       </c>
+      <c r="B348">
+        <v>111898</v>
+      </c>
       <c r="C348" t="s">
         <v>418</v>
       </c>
@@ -9814,6 +10855,9 @@
       <c r="A349">
         <v>257</v>
       </c>
+      <c r="B349">
+        <v>111899</v>
+      </c>
       <c r="C349" t="s">
         <v>419</v>
       </c>
@@ -9834,6 +10878,9 @@
       <c r="A350">
         <v>258</v>
       </c>
+      <c r="B350">
+        <v>111900</v>
+      </c>
       <c r="C350" t="s">
         <v>420</v>
       </c>
@@ -9854,6 +10901,9 @@
       <c r="A351">
         <v>259</v>
       </c>
+      <c r="B351">
+        <v>111901</v>
+      </c>
       <c r="C351" t="s">
         <v>421</v>
       </c>
@@ -9874,6 +10924,9 @@
       <c r="A352">
         <v>260</v>
       </c>
+      <c r="B352">
+        <v>111902</v>
+      </c>
       <c r="C352" t="s">
         <v>422</v>
       </c>
@@ -9894,6 +10947,9 @@
       <c r="A353">
         <v>261</v>
       </c>
+      <c r="B353">
+        <v>111903</v>
+      </c>
       <c r="C353" t="s">
         <v>423</v>
       </c>
@@ -9914,6 +10970,9 @@
       <c r="A354">
         <v>262</v>
       </c>
+      <c r="B354">
+        <v>111904</v>
+      </c>
       <c r="C354" t="s">
         <v>424</v>
       </c>
@@ -9934,6 +10993,9 @@
       <c r="A355">
         <v>263</v>
       </c>
+      <c r="B355">
+        <v>111905</v>
+      </c>
       <c r="C355" t="s">
         <v>425</v>
       </c>
@@ -9954,6 +11016,9 @@
       <c r="A356">
         <v>264</v>
       </c>
+      <c r="B356">
+        <v>111906</v>
+      </c>
       <c r="C356" t="s">
         <v>426</v>
       </c>
@@ -9974,6 +11039,9 @@
       <c r="A357">
         <v>265</v>
       </c>
+      <c r="B357">
+        <v>111907</v>
+      </c>
       <c r="C357" t="s">
         <v>427</v>
       </c>
@@ -9994,6 +11062,9 @@
       <c r="A358">
         <v>266</v>
       </c>
+      <c r="B358">
+        <v>111908</v>
+      </c>
       <c r="C358" t="s">
         <v>428</v>
       </c>
@@ -10014,6 +11085,9 @@
       <c r="A359">
         <v>267</v>
       </c>
+      <c r="B359">
+        <v>111909</v>
+      </c>
       <c r="C359" t="s">
         <v>429</v>
       </c>
@@ -10034,6 +11108,9 @@
       <c r="A360">
         <v>268</v>
       </c>
+      <c r="B360">
+        <v>111910</v>
+      </c>
       <c r="C360" t="s">
         <v>430</v>
       </c>
@@ -10054,6 +11131,9 @@
       <c r="A361">
         <v>269</v>
       </c>
+      <c r="B361">
+        <v>111911</v>
+      </c>
       <c r="C361" t="s">
         <v>431</v>
       </c>
@@ -10074,6 +11154,9 @@
       <c r="A362">
         <v>270</v>
       </c>
+      <c r="B362">
+        <v>111912</v>
+      </c>
       <c r="C362" t="s">
         <v>432</v>
       </c>
@@ -10094,6 +11177,9 @@
       <c r="A363">
         <v>271</v>
       </c>
+      <c r="B363">
+        <v>111913</v>
+      </c>
       <c r="C363" t="s">
         <v>433</v>
       </c>
@@ -10114,6 +11200,9 @@
       <c r="A364">
         <v>272</v>
       </c>
+      <c r="B364">
+        <v>111914</v>
+      </c>
       <c r="C364" t="s">
         <v>434</v>
       </c>
@@ -10134,6 +11223,9 @@
       <c r="A365">
         <v>273</v>
       </c>
+      <c r="B365">
+        <v>111915</v>
+      </c>
       <c r="C365" t="s">
         <v>435</v>
       </c>
@@ -10154,6 +11246,9 @@
       <c r="A366">
         <v>274</v>
       </c>
+      <c r="B366">
+        <v>111916</v>
+      </c>
       <c r="C366" t="s">
         <v>437</v>
       </c>
@@ -10174,6 +11269,9 @@
       <c r="A367">
         <v>275</v>
       </c>
+      <c r="B367">
+        <v>111917</v>
+      </c>
       <c r="C367" t="s">
         <v>438</v>
       </c>
@@ -10194,6 +11292,9 @@
       <c r="A368">
         <v>276</v>
       </c>
+      <c r="B368">
+        <v>111918</v>
+      </c>
       <c r="C368" t="s">
         <v>439</v>
       </c>
@@ -10214,6 +11315,9 @@
       <c r="A369">
         <v>277</v>
       </c>
+      <c r="B369">
+        <v>111919</v>
+      </c>
       <c r="C369" t="s">
         <v>440</v>
       </c>
@@ -10234,6 +11338,9 @@
       <c r="A370">
         <v>278</v>
       </c>
+      <c r="B370">
+        <v>111920</v>
+      </c>
       <c r="C370" t="s">
         <v>441</v>
       </c>
@@ -10254,6 +11361,9 @@
       <c r="A371">
         <v>279</v>
       </c>
+      <c r="B371">
+        <v>111921</v>
+      </c>
       <c r="C371" t="s">
         <v>442</v>
       </c>
@@ -10274,6 +11384,9 @@
       <c r="A372">
         <v>280</v>
       </c>
+      <c r="B372">
+        <v>111922</v>
+      </c>
       <c r="C372" t="s">
         <v>443</v>
       </c>
@@ -10294,6 +11407,9 @@
       <c r="A373">
         <v>281</v>
       </c>
+      <c r="B373">
+        <v>111923</v>
+      </c>
       <c r="C373" t="s">
         <v>444</v>
       </c>
@@ -10314,6 +11430,9 @@
       <c r="A374">
         <v>282</v>
       </c>
+      <c r="B374">
+        <v>111924</v>
+      </c>
       <c r="C374" t="s">
         <v>445</v>
       </c>
@@ -10334,6 +11453,9 @@
       <c r="A375">
         <v>283</v>
       </c>
+      <c r="B375">
+        <v>111925</v>
+      </c>
       <c r="C375" t="s">
         <v>446</v>
       </c>
@@ -10354,6 +11476,9 @@
       <c r="A376">
         <v>284</v>
       </c>
+      <c r="B376">
+        <v>111926</v>
+      </c>
       <c r="C376" t="s">
         <v>447</v>
       </c>
@@ -10374,6 +11499,9 @@
       <c r="A377">
         <v>285</v>
       </c>
+      <c r="B377">
+        <v>111927</v>
+      </c>
       <c r="C377" t="s">
         <v>448</v>
       </c>
@@ -10394,6 +11522,9 @@
       <c r="A378">
         <v>286</v>
       </c>
+      <c r="B378">
+        <v>111928</v>
+      </c>
       <c r="C378" t="s">
         <v>449</v>
       </c>
@@ -10414,6 +11545,9 @@
       <c r="A379">
         <v>287</v>
       </c>
+      <c r="B379">
+        <v>111929</v>
+      </c>
       <c r="C379" t="s">
         <v>450</v>
       </c>
@@ -10434,6 +11568,9 @@
       <c r="A380">
         <v>288</v>
       </c>
+      <c r="B380">
+        <v>111930</v>
+      </c>
       <c r="C380" t="s">
         <v>451</v>
       </c>
@@ -10454,6 +11591,9 @@
       <c r="A381">
         <v>289</v>
       </c>
+      <c r="B381">
+        <v>111931</v>
+      </c>
       <c r="C381" t="s">
         <v>452</v>
       </c>
@@ -10474,6 +11614,9 @@
       <c r="A382">
         <v>290</v>
       </c>
+      <c r="B382">
+        <v>111932</v>
+      </c>
       <c r="C382" t="s">
         <v>454</v>
       </c>
@@ -10494,6 +11637,9 @@
       <c r="A383">
         <v>291</v>
       </c>
+      <c r="B383">
+        <v>111933</v>
+      </c>
       <c r="C383" t="s">
         <v>455</v>
       </c>
@@ -10514,6 +11660,9 @@
       <c r="A384">
         <v>292</v>
       </c>
+      <c r="B384">
+        <v>111934</v>
+      </c>
       <c r="C384" t="s">
         <v>456</v>
       </c>
@@ -10534,6 +11683,9 @@
       <c r="A385">
         <v>293</v>
       </c>
+      <c r="B385">
+        <v>111935</v>
+      </c>
       <c r="C385" t="s">
         <v>457</v>
       </c>
@@ -10554,6 +11706,9 @@
       <c r="A386">
         <v>294</v>
       </c>
+      <c r="B386">
+        <v>111936</v>
+      </c>
       <c r="C386" t="s">
         <v>458</v>
       </c>
@@ -10574,6 +11729,9 @@
       <c r="A387">
         <v>295</v>
       </c>
+      <c r="B387">
+        <v>111937</v>
+      </c>
       <c r="C387" t="s">
         <v>459</v>
       </c>
@@ -10594,6 +11752,9 @@
       <c r="A388">
         <v>296</v>
       </c>
+      <c r="B388">
+        <v>111938</v>
+      </c>
       <c r="C388" t="s">
         <v>460</v>
       </c>
@@ -10614,6 +11775,9 @@
       <c r="A389">
         <v>297</v>
       </c>
+      <c r="B389">
+        <v>111939</v>
+      </c>
       <c r="C389" t="s">
         <v>461</v>
       </c>
@@ -10634,6 +11798,9 @@
       <c r="A390">
         <v>298</v>
       </c>
+      <c r="B390">
+        <v>111940</v>
+      </c>
       <c r="C390" t="s">
         <v>462</v>
       </c>
@@ -10654,6 +11821,9 @@
       <c r="A391">
         <v>299</v>
       </c>
+      <c r="B391">
+        <v>111941</v>
+      </c>
       <c r="C391" t="s">
         <v>463</v>
       </c>
@@ -10674,6 +11844,9 @@
       <c r="A392">
         <v>300</v>
       </c>
+      <c r="B392">
+        <v>111942</v>
+      </c>
       <c r="C392" t="s">
         <v>464</v>
       </c>
@@ -10694,6 +11867,9 @@
       <c r="A393">
         <v>301</v>
       </c>
+      <c r="B393">
+        <v>111943</v>
+      </c>
       <c r="C393" t="s">
         <v>465</v>
       </c>
@@ -10714,6 +11890,9 @@
       <c r="A394">
         <v>302</v>
       </c>
+      <c r="B394">
+        <v>111944</v>
+      </c>
       <c r="C394" t="s">
         <v>467</v>
       </c>
@@ -10734,6 +11913,9 @@
       <c r="A395">
         <v>303</v>
       </c>
+      <c r="B395">
+        <v>111945</v>
+      </c>
       <c r="C395" t="s">
         <v>468</v>
       </c>
@@ -10754,6 +11936,9 @@
       <c r="A396">
         <v>304</v>
       </c>
+      <c r="B396">
+        <v>111946</v>
+      </c>
       <c r="C396" t="s">
         <v>469</v>
       </c>
@@ -10774,6 +11959,9 @@
       <c r="A397">
         <v>305</v>
       </c>
+      <c r="B397">
+        <v>111947</v>
+      </c>
       <c r="C397" t="s">
         <v>470</v>
       </c>
@@ -10794,6 +11982,9 @@
       <c r="A398">
         <v>306</v>
       </c>
+      <c r="B398">
+        <v>111948</v>
+      </c>
       <c r="C398" t="s">
         <v>472</v>
       </c>
@@ -10814,6 +12005,9 @@
       <c r="A399">
         <v>307</v>
       </c>
+      <c r="B399">
+        <v>111949</v>
+      </c>
       <c r="C399" t="s">
         <v>473</v>
       </c>
@@ -10834,6 +12028,9 @@
       <c r="A400">
         <v>308</v>
       </c>
+      <c r="B400">
+        <v>111950</v>
+      </c>
       <c r="C400" t="s">
         <v>474</v>
       </c>
@@ -10854,6 +12051,9 @@
       <c r="A401">
         <v>309</v>
       </c>
+      <c r="B401">
+        <v>111951</v>
+      </c>
       <c r="C401" t="s">
         <v>475</v>
       </c>
@@ -10874,6 +12074,9 @@
       <c r="A402">
         <v>310</v>
       </c>
+      <c r="B402">
+        <v>111952</v>
+      </c>
       <c r="C402" t="s">
         <v>476</v>
       </c>
@@ -10894,6 +12097,9 @@
       <c r="A403">
         <v>311</v>
       </c>
+      <c r="B403">
+        <v>111953</v>
+      </c>
       <c r="C403" t="s">
         <v>477</v>
       </c>
@@ -10914,6 +12120,9 @@
       <c r="A404">
         <v>312</v>
       </c>
+      <c r="B404">
+        <v>111954</v>
+      </c>
       <c r="C404" t="s">
         <v>478</v>
       </c>
@@ -10934,6 +12143,9 @@
       <c r="A405">
         <v>313</v>
       </c>
+      <c r="B405">
+        <v>111955</v>
+      </c>
       <c r="C405" t="s">
         <v>479</v>
       </c>
@@ -10954,6 +12166,9 @@
       <c r="A406">
         <v>314</v>
       </c>
+      <c r="B406">
+        <v>111956</v>
+      </c>
       <c r="C406" t="s">
         <v>481</v>
       </c>
@@ -10974,6 +12189,9 @@
       <c r="A407">
         <v>315</v>
       </c>
+      <c r="B407">
+        <v>111957</v>
+      </c>
       <c r="C407" t="s">
         <v>482</v>
       </c>
@@ -10994,6 +12212,9 @@
       <c r="A408">
         <v>316</v>
       </c>
+      <c r="B408">
+        <v>111958</v>
+      </c>
       <c r="C408" t="s">
         <v>483</v>
       </c>
@@ -11014,6 +12235,9 @@
       <c r="A409">
         <v>317</v>
       </c>
+      <c r="B409">
+        <v>111959</v>
+      </c>
       <c r="C409" t="s">
         <v>484</v>
       </c>
@@ -11034,6 +12258,9 @@
       <c r="A410">
         <v>318</v>
       </c>
+      <c r="B410">
+        <v>111960</v>
+      </c>
       <c r="C410" t="s">
         <v>485</v>
       </c>
@@ -11054,6 +12281,9 @@
       <c r="A411">
         <v>319</v>
       </c>
+      <c r="B411">
+        <v>111961</v>
+      </c>
       <c r="C411" t="s">
         <v>486</v>
       </c>
@@ -11074,6 +12304,9 @@
       <c r="A412">
         <v>320</v>
       </c>
+      <c r="B412">
+        <v>111962</v>
+      </c>
       <c r="C412" t="s">
         <v>487</v>
       </c>
@@ -11094,6 +12327,9 @@
       <c r="A413">
         <v>321</v>
       </c>
+      <c r="B413">
+        <v>111963</v>
+      </c>
       <c r="C413" t="s">
         <v>488</v>
       </c>
@@ -11114,6 +12350,9 @@
       <c r="A414">
         <v>322</v>
       </c>
+      <c r="B414">
+        <v>111964</v>
+      </c>
       <c r="C414" t="s">
         <v>489</v>
       </c>
@@ -11134,6 +12373,9 @@
       <c r="A415">
         <v>323</v>
       </c>
+      <c r="B415">
+        <v>111965</v>
+      </c>
       <c r="C415" t="s">
         <v>490</v>
       </c>
@@ -11154,6 +12396,9 @@
       <c r="A416">
         <v>324</v>
       </c>
+      <c r="B416">
+        <v>111966</v>
+      </c>
       <c r="C416" t="s">
         <v>491</v>
       </c>
@@ -11174,6 +12419,9 @@
       <c r="A417">
         <v>325</v>
       </c>
+      <c r="B417">
+        <v>111967</v>
+      </c>
       <c r="C417" t="s">
         <v>492</v>
       </c>
@@ -11194,6 +12442,9 @@
       <c r="A418">
         <v>326</v>
       </c>
+      <c r="B418">
+        <v>111968</v>
+      </c>
       <c r="C418" t="s">
         <v>493</v>
       </c>
@@ -11214,6 +12465,9 @@
       <c r="A419">
         <v>327</v>
       </c>
+      <c r="B419">
+        <v>111969</v>
+      </c>
       <c r="C419" t="s">
         <v>494</v>
       </c>
@@ -11234,6 +12488,9 @@
       <c r="A420">
         <v>328</v>
       </c>
+      <c r="B420">
+        <v>111970</v>
+      </c>
       <c r="C420" t="s">
         <v>495</v>
       </c>
@@ -11254,6 +12511,9 @@
       <c r="A421">
         <v>329</v>
       </c>
+      <c r="B421">
+        <v>111971</v>
+      </c>
       <c r="C421" t="s">
         <v>496</v>
       </c>
@@ -11274,6 +12534,9 @@
       <c r="A422">
         <v>330</v>
       </c>
+      <c r="B422">
+        <v>111972</v>
+      </c>
       <c r="C422" t="s">
         <v>497</v>
       </c>
@@ -11294,6 +12557,9 @@
       <c r="A423">
         <v>331</v>
       </c>
+      <c r="B423">
+        <v>111973</v>
+      </c>
       <c r="C423" t="s">
         <v>498</v>
       </c>
@@ -11314,6 +12580,9 @@
       <c r="A424">
         <v>332</v>
       </c>
+      <c r="B424">
+        <v>111974</v>
+      </c>
       <c r="C424" t="s">
         <v>499</v>
       </c>
@@ -11334,6 +12603,9 @@
       <c r="A425">
         <v>333</v>
       </c>
+      <c r="B425">
+        <v>111975</v>
+      </c>
       <c r="C425" t="s">
         <v>500</v>
       </c>
@@ -11354,6 +12626,9 @@
       <c r="A426">
         <v>334</v>
       </c>
+      <c r="B426">
+        <v>111976</v>
+      </c>
       <c r="C426" t="s">
         <v>501</v>
       </c>
@@ -11374,6 +12649,9 @@
       <c r="A427">
         <v>335</v>
       </c>
+      <c r="B427">
+        <v>111977</v>
+      </c>
       <c r="C427" t="s">
         <v>502</v>
       </c>
@@ -11394,6 +12672,9 @@
       <c r="A428">
         <v>336</v>
       </c>
+      <c r="B428">
+        <v>111978</v>
+      </c>
       <c r="C428" t="s">
         <v>503</v>
       </c>
@@ -11414,6 +12695,9 @@
       <c r="A429">
         <v>337</v>
       </c>
+      <c r="B429">
+        <v>111979</v>
+      </c>
       <c r="C429" t="s">
         <v>504</v>
       </c>
@@ -11434,6 +12718,9 @@
       <c r="A430">
         <v>338</v>
       </c>
+      <c r="B430">
+        <v>111980</v>
+      </c>
       <c r="C430" t="s">
         <v>505</v>
       </c>
@@ -11454,6 +12741,9 @@
       <c r="A431">
         <v>339</v>
       </c>
+      <c r="B431">
+        <v>111981</v>
+      </c>
       <c r="C431" t="s">
         <v>506</v>
       </c>
@@ -11474,6 +12764,9 @@
       <c r="A432">
         <v>340</v>
       </c>
+      <c r="B432">
+        <v>111982</v>
+      </c>
       <c r="C432" t="s">
         <v>507</v>
       </c>
@@ -11494,6 +12787,9 @@
       <c r="A433">
         <v>341</v>
       </c>
+      <c r="B433">
+        <v>111983</v>
+      </c>
       <c r="C433" t="s">
         <v>508</v>
       </c>
@@ -11514,6 +12810,9 @@
       <c r="A434">
         <v>342</v>
       </c>
+      <c r="B434">
+        <v>111984</v>
+      </c>
       <c r="C434" t="s">
         <v>509</v>
       </c>
@@ -11534,6 +12833,9 @@
       <c r="A435">
         <v>343</v>
       </c>
+      <c r="B435">
+        <v>111985</v>
+      </c>
       <c r="C435" t="s">
         <v>510</v>
       </c>
@@ -11554,6 +12856,9 @@
       <c r="A436">
         <v>344</v>
       </c>
+      <c r="B436">
+        <v>111986</v>
+      </c>
       <c r="C436" t="s">
         <v>511</v>
       </c>
@@ -11574,6 +12879,9 @@
       <c r="A437">
         <v>345</v>
       </c>
+      <c r="B437">
+        <v>111987</v>
+      </c>
       <c r="C437" t="s">
         <v>512</v>
       </c>
@@ -11594,6 +12902,9 @@
       <c r="A438">
         <v>346</v>
       </c>
+      <c r="B438">
+        <v>111988</v>
+      </c>
       <c r="C438" t="s">
         <v>513</v>
       </c>
@@ -11614,6 +12925,9 @@
       <c r="A439">
         <v>347</v>
       </c>
+      <c r="B439">
+        <v>111989</v>
+      </c>
       <c r="C439" t="s">
         <v>514</v>
       </c>
@@ -11634,6 +12948,9 @@
       <c r="A440">
         <v>348</v>
       </c>
+      <c r="B440">
+        <v>111990</v>
+      </c>
       <c r="C440" t="s">
         <v>515</v>
       </c>
@@ -11654,6 +12971,9 @@
       <c r="A441">
         <v>349</v>
       </c>
+      <c r="B441">
+        <v>111991</v>
+      </c>
       <c r="C441" t="s">
         <v>516</v>
       </c>
@@ -11674,6 +12994,9 @@
       <c r="A442">
         <v>350</v>
       </c>
+      <c r="B442">
+        <v>111992</v>
+      </c>
       <c r="C442" t="s">
         <v>517</v>
       </c>
@@ -11694,6 +13017,9 @@
       <c r="A443">
         <v>351</v>
       </c>
+      <c r="B443">
+        <v>111993</v>
+      </c>
       <c r="C443" t="s">
         <v>518</v>
       </c>
@@ -11714,6 +13040,9 @@
       <c r="A444">
         <v>352</v>
       </c>
+      <c r="B444">
+        <v>111994</v>
+      </c>
       <c r="C444" t="s">
         <v>519</v>
       </c>
@@ -11734,6 +13063,9 @@
       <c r="A445">
         <v>353</v>
       </c>
+      <c r="B445">
+        <v>111995</v>
+      </c>
       <c r="C445" t="s">
         <v>520</v>
       </c>
@@ -11754,6 +13086,9 @@
       <c r="A446">
         <v>354</v>
       </c>
+      <c r="B446">
+        <v>111996</v>
+      </c>
       <c r="C446" t="s">
         <v>521</v>
       </c>
@@ -11774,6 +13109,9 @@
       <c r="A447">
         <v>355</v>
       </c>
+      <c r="B447">
+        <v>111997</v>
+      </c>
       <c r="C447" t="s">
         <v>522</v>
       </c>
@@ -11794,6 +13132,9 @@
       <c r="A448">
         <v>356</v>
       </c>
+      <c r="B448">
+        <v>111998</v>
+      </c>
       <c r="C448" t="s">
         <v>523</v>
       </c>
@@ -11814,6 +13155,9 @@
       <c r="A449">
         <v>357</v>
       </c>
+      <c r="B449">
+        <v>111999</v>
+      </c>
       <c r="C449" t="s">
         <v>524</v>
       </c>
@@ -11834,6 +13178,9 @@
       <c r="A450">
         <v>358</v>
       </c>
+      <c r="B450">
+        <v>112000</v>
+      </c>
       <c r="C450" t="s">
         <v>525</v>
       </c>
@@ -11854,6 +13201,9 @@
       <c r="A451">
         <v>359</v>
       </c>
+      <c r="B451">
+        <v>112001</v>
+      </c>
       <c r="C451" t="s">
         <v>526</v>
       </c>
@@ -11874,6 +13224,9 @@
       <c r="A452">
         <v>360</v>
       </c>
+      <c r="B452">
+        <v>112002</v>
+      </c>
       <c r="C452" t="s">
         <v>527</v>
       </c>
@@ -11894,6 +13247,9 @@
       <c r="A453">
         <v>361</v>
       </c>
+      <c r="B453">
+        <v>112003</v>
+      </c>
       <c r="C453" t="s">
         <v>528</v>
       </c>
@@ -11914,6 +13270,9 @@
       <c r="A454">
         <v>362</v>
       </c>
+      <c r="B454">
+        <v>112004</v>
+      </c>
       <c r="C454" t="s">
         <v>530</v>
       </c>
@@ -11934,6 +13293,9 @@
       <c r="A455">
         <v>363</v>
       </c>
+      <c r="B455">
+        <v>112005</v>
+      </c>
       <c r="C455" t="s">
         <v>531</v>
       </c>
@@ -11954,6 +13316,9 @@
       <c r="A456">
         <v>364</v>
       </c>
+      <c r="B456">
+        <v>112006</v>
+      </c>
       <c r="C456" t="s">
         <v>532</v>
       </c>
@@ -11974,6 +13339,9 @@
       <c r="A457">
         <v>365</v>
       </c>
+      <c r="B457">
+        <v>112007</v>
+      </c>
       <c r="C457" t="s">
         <v>533</v>
       </c>
@@ -11994,6 +13362,9 @@
       <c r="A458">
         <v>366</v>
       </c>
+      <c r="B458">
+        <v>112008</v>
+      </c>
       <c r="C458" t="s">
         <v>534</v>
       </c>
@@ -12014,6 +13385,9 @@
       <c r="A459">
         <v>367</v>
       </c>
+      <c r="B459">
+        <v>112009</v>
+      </c>
       <c r="C459" t="s">
         <v>535</v>
       </c>
@@ -12034,6 +13408,9 @@
       <c r="A460">
         <v>368</v>
       </c>
+      <c r="B460">
+        <v>112010</v>
+      </c>
       <c r="C460" t="s">
         <v>536</v>
       </c>
@@ -12054,6 +13431,9 @@
       <c r="A461">
         <v>369</v>
       </c>
+      <c r="B461">
+        <v>112011</v>
+      </c>
       <c r="C461" t="s">
         <v>537</v>
       </c>
@@ -12074,6 +13454,9 @@
       <c r="A462">
         <v>370</v>
       </c>
+      <c r="B462">
+        <v>112012</v>
+      </c>
       <c r="C462" t="s">
         <v>538</v>
       </c>
@@ -12094,6 +13477,9 @@
       <c r="A463">
         <v>371</v>
       </c>
+      <c r="B463">
+        <v>112013</v>
+      </c>
       <c r="C463" t="s">
         <v>539</v>
       </c>
@@ -12114,6 +13500,9 @@
       <c r="A464">
         <v>372</v>
       </c>
+      <c r="B464">
+        <v>112014</v>
+      </c>
       <c r="C464" t="s">
         <v>540</v>
       </c>
@@ -12134,6 +13523,9 @@
       <c r="A465">
         <v>373</v>
       </c>
+      <c r="B465">
+        <v>112015</v>
+      </c>
       <c r="C465" t="s">
         <v>541</v>
       </c>
@@ -12154,6 +13546,9 @@
       <c r="A466">
         <v>374</v>
       </c>
+      <c r="B466">
+        <v>112016</v>
+      </c>
       <c r="C466" t="s">
         <v>542</v>
       </c>
@@ -12174,6 +13569,9 @@
       <c r="A467">
         <v>375</v>
       </c>
+      <c r="B467">
+        <v>112017</v>
+      </c>
       <c r="C467" t="s">
         <v>543</v>
       </c>
@@ -12194,6 +13592,9 @@
       <c r="A468">
         <v>376</v>
       </c>
+      <c r="B468">
+        <v>112018</v>
+      </c>
       <c r="C468" t="s">
         <v>544</v>
       </c>
@@ -12214,6 +13615,9 @@
       <c r="A469">
         <v>377</v>
       </c>
+      <c r="B469">
+        <v>112019</v>
+      </c>
       <c r="C469" t="s">
         <v>545</v>
       </c>
@@ -12234,6 +13638,9 @@
       <c r="A470">
         <v>378</v>
       </c>
+      <c r="B470">
+        <v>112020</v>
+      </c>
       <c r="C470" t="s">
         <v>546</v>
       </c>
@@ -12254,6 +13661,9 @@
       <c r="A471">
         <v>379</v>
       </c>
+      <c r="B471">
+        <v>112021</v>
+      </c>
       <c r="C471" t="s">
         <v>547</v>
       </c>
@@ -12274,6 +13684,9 @@
       <c r="A472">
         <v>380</v>
       </c>
+      <c r="B472">
+        <v>112022</v>
+      </c>
       <c r="C472" t="s">
         <v>548</v>
       </c>
@@ -12294,6 +13707,9 @@
       <c r="A473">
         <v>381</v>
       </c>
+      <c r="B473">
+        <v>112023</v>
+      </c>
       <c r="C473" t="s">
         <v>549</v>
       </c>
@@ -12314,6 +13730,9 @@
       <c r="A474">
         <v>382</v>
       </c>
+      <c r="B474">
+        <v>112024</v>
+      </c>
       <c r="C474" t="s">
         <v>550</v>
       </c>
@@ -12334,6 +13753,9 @@
       <c r="A475">
         <v>383</v>
       </c>
+      <c r="B475">
+        <v>112025</v>
+      </c>
       <c r="C475" t="s">
         <v>551</v>
       </c>
@@ -12354,6 +13776,9 @@
       <c r="A476">
         <v>384</v>
       </c>
+      <c r="B476">
+        <v>112026</v>
+      </c>
       <c r="C476" t="s">
         <v>552</v>
       </c>
@@ -12374,6 +13799,9 @@
       <c r="A477">
         <v>385</v>
       </c>
+      <c r="B477">
+        <v>112027</v>
+      </c>
       <c r="C477" t="s">
         <v>553</v>
       </c>
@@ -12394,6 +13822,9 @@
       <c r="A478">
         <v>386</v>
       </c>
+      <c r="B478">
+        <v>112028</v>
+      </c>
       <c r="C478" t="s">
         <v>554</v>
       </c>
@@ -12414,6 +13845,9 @@
       <c r="A479">
         <v>387</v>
       </c>
+      <c r="B479">
+        <v>112029</v>
+      </c>
       <c r="C479" t="s">
         <v>555</v>
       </c>
@@ -12434,6 +13868,9 @@
       <c r="A480">
         <v>388</v>
       </c>
+      <c r="B480">
+        <v>112030</v>
+      </c>
       <c r="C480" t="s">
         <v>556</v>
       </c>
@@ -12454,6 +13891,9 @@
       <c r="A481">
         <v>389</v>
       </c>
+      <c r="B481">
+        <v>112031</v>
+      </c>
       <c r="C481" t="s">
         <v>557</v>
       </c>
@@ -12474,6 +13914,9 @@
       <c r="A482">
         <v>390</v>
       </c>
+      <c r="B482">
+        <v>112032</v>
+      </c>
       <c r="C482" t="s">
         <v>558</v>
       </c>
@@ -12494,6 +13937,9 @@
       <c r="A483">
         <v>391</v>
       </c>
+      <c r="B483">
+        <v>112033</v>
+      </c>
       <c r="C483" t="s">
         <v>559</v>
       </c>
@@ -12514,6 +13960,9 @@
       <c r="A484">
         <v>392</v>
       </c>
+      <c r="B484">
+        <v>112034</v>
+      </c>
       <c r="C484" t="s">
         <v>561</v>
       </c>
@@ -12534,6 +13983,9 @@
       <c r="A485">
         <v>393</v>
       </c>
+      <c r="B485">
+        <v>112035</v>
+      </c>
       <c r="C485" t="s">
         <v>562</v>
       </c>
@@ -12554,6 +14006,9 @@
       <c r="A486">
         <v>394</v>
       </c>
+      <c r="B486">
+        <v>112036</v>
+      </c>
       <c r="C486" t="s">
         <v>563</v>
       </c>
@@ -12574,6 +14029,9 @@
       <c r="A487">
         <v>395</v>
       </c>
+      <c r="B487">
+        <v>112037</v>
+      </c>
       <c r="C487" t="s">
         <v>564</v>
       </c>
@@ -12594,6 +14052,9 @@
       <c r="A488">
         <v>396</v>
       </c>
+      <c r="B488">
+        <v>112038</v>
+      </c>
       <c r="C488" t="s">
         <v>565</v>
       </c>
@@ -12614,6 +14075,9 @@
       <c r="A489">
         <v>397</v>
       </c>
+      <c r="B489">
+        <v>112039</v>
+      </c>
       <c r="C489" t="s">
         <v>566</v>
       </c>
@@ -12634,6 +14098,9 @@
       <c r="A490">
         <v>398</v>
       </c>
+      <c r="B490">
+        <v>112040</v>
+      </c>
       <c r="C490" t="s">
         <v>567</v>
       </c>
@@ -12654,6 +14121,9 @@
       <c r="A491">
         <v>399</v>
       </c>
+      <c r="B491">
+        <v>112041</v>
+      </c>
       <c r="C491" t="s">
         <v>568</v>
       </c>
@@ -12674,6 +14144,9 @@
       <c r="A492">
         <v>400</v>
       </c>
+      <c r="B492">
+        <v>112042</v>
+      </c>
       <c r="C492" t="s">
         <v>569</v>
       </c>
@@ -12694,6 +14167,9 @@
       <c r="A493">
         <v>401</v>
       </c>
+      <c r="B493">
+        <v>112043</v>
+      </c>
       <c r="C493" t="s">
         <v>570</v>
       </c>
@@ -12714,6 +14190,9 @@
       <c r="A494">
         <v>402</v>
       </c>
+      <c r="B494">
+        <v>112044</v>
+      </c>
       <c r="C494" t="s">
         <v>571</v>
       </c>
@@ -12734,6 +14213,9 @@
       <c r="A495">
         <v>403</v>
       </c>
+      <c r="B495">
+        <v>112045</v>
+      </c>
       <c r="C495" t="s">
         <v>572</v>
       </c>
@@ -12754,6 +14236,9 @@
       <c r="A496">
         <v>404</v>
       </c>
+      <c r="B496">
+        <v>112046</v>
+      </c>
       <c r="C496" t="s">
         <v>573</v>
       </c>
@@ -12774,6 +14259,9 @@
       <c r="A497">
         <v>405</v>
       </c>
+      <c r="B497">
+        <v>112047</v>
+      </c>
       <c r="C497" t="s">
         <v>574</v>
       </c>
@@ -12794,6 +14282,9 @@
       <c r="A498">
         <v>406</v>
       </c>
+      <c r="B498">
+        <v>112048</v>
+      </c>
       <c r="C498" t="s">
         <v>575</v>
       </c>
@@ -12814,6 +14305,9 @@
       <c r="A499">
         <v>407</v>
       </c>
+      <c r="B499">
+        <v>112049</v>
+      </c>
       <c r="C499" t="s">
         <v>576</v>
       </c>
@@ -12834,6 +14328,9 @@
       <c r="A500">
         <v>408</v>
       </c>
+      <c r="B500">
+        <v>112050</v>
+      </c>
       <c r="C500" t="s">
         <v>577</v>
       </c>
@@ -12854,6 +14351,9 @@
       <c r="A501">
         <v>409</v>
       </c>
+      <c r="B501">
+        <v>112051</v>
+      </c>
       <c r="C501" t="s">
         <v>578</v>
       </c>
@@ -12874,6 +14374,9 @@
       <c r="A502">
         <v>410</v>
       </c>
+      <c r="B502">
+        <v>112052</v>
+      </c>
       <c r="C502" t="s">
         <v>579</v>
       </c>
@@ -12894,6 +14397,9 @@
       <c r="A503">
         <v>411</v>
       </c>
+      <c r="B503">
+        <v>112053</v>
+      </c>
       <c r="C503" t="s">
         <v>580</v>
       </c>
@@ -12914,6 +14420,9 @@
       <c r="A504">
         <v>412</v>
       </c>
+      <c r="B504">
+        <v>112054</v>
+      </c>
       <c r="C504" t="s">
         <v>582</v>
       </c>
@@ -12934,6 +14443,9 @@
       <c r="A505">
         <v>413</v>
       </c>
+      <c r="B505">
+        <v>112055</v>
+      </c>
       <c r="C505" t="s">
         <v>583</v>
       </c>
@@ -12954,6 +14466,9 @@
       <c r="A506">
         <v>414</v>
       </c>
+      <c r="B506">
+        <v>112056</v>
+      </c>
       <c r="C506" t="s">
         <v>584</v>
       </c>
@@ -12974,6 +14489,9 @@
       <c r="A507">
         <v>415</v>
       </c>
+      <c r="B507">
+        <v>112057</v>
+      </c>
       <c r="C507" t="s">
         <v>585</v>
       </c>
@@ -12994,6 +14512,9 @@
       <c r="A508">
         <v>416</v>
       </c>
+      <c r="B508">
+        <v>112058</v>
+      </c>
       <c r="C508" t="s">
         <v>586</v>
       </c>
@@ -13014,6 +14535,9 @@
       <c r="A509">
         <v>417</v>
       </c>
+      <c r="B509">
+        <v>112059</v>
+      </c>
       <c r="C509" t="s">
         <v>587</v>
       </c>
@@ -13034,6 +14558,9 @@
       <c r="A510">
         <v>418</v>
       </c>
+      <c r="B510">
+        <v>112060</v>
+      </c>
       <c r="C510" t="s">
         <v>588</v>
       </c>
@@ -13054,6 +14581,9 @@
       <c r="A511">
         <v>419</v>
       </c>
+      <c r="B511">
+        <v>112061</v>
+      </c>
       <c r="C511" t="s">
         <v>589</v>
       </c>
@@ -13074,6 +14604,9 @@
       <c r="A512">
         <v>420</v>
       </c>
+      <c r="B512">
+        <v>112062</v>
+      </c>
       <c r="C512" t="s">
         <v>590</v>
       </c>
@@ -13094,6 +14627,9 @@
       <c r="A513">
         <v>421</v>
       </c>
+      <c r="B513">
+        <v>112063</v>
+      </c>
       <c r="C513" t="s">
         <v>591</v>
       </c>
@@ -13114,6 +14650,9 @@
       <c r="A514">
         <v>422</v>
       </c>
+      <c r="B514">
+        <v>112064</v>
+      </c>
       <c r="C514" t="s">
         <v>592</v>
       </c>
@@ -13134,6 +14673,9 @@
       <c r="A515">
         <v>423</v>
       </c>
+      <c r="B515">
+        <v>112065</v>
+      </c>
       <c r="C515" t="s">
         <v>593</v>
       </c>
@@ -13154,6 +14696,9 @@
       <c r="A516">
         <v>424</v>
       </c>
+      <c r="B516">
+        <v>112066</v>
+      </c>
       <c r="C516" t="s">
         <v>594</v>
       </c>
@@ -13174,6 +14719,9 @@
       <c r="A517">
         <v>425</v>
       </c>
+      <c r="B517">
+        <v>112067</v>
+      </c>
       <c r="C517" t="s">
         <v>595</v>
       </c>
@@ -13194,6 +14742,9 @@
       <c r="A518">
         <v>426</v>
       </c>
+      <c r="B518">
+        <v>112068</v>
+      </c>
       <c r="C518" t="s">
         <v>596</v>
       </c>
@@ -13214,6 +14765,9 @@
       <c r="A519">
         <v>427</v>
       </c>
+      <c r="B519">
+        <v>112069</v>
+      </c>
       <c r="C519" t="s">
         <v>597</v>
       </c>
@@ -13234,6 +14788,9 @@
       <c r="A520">
         <v>428</v>
       </c>
+      <c r="B520">
+        <v>112070</v>
+      </c>
       <c r="C520" t="s">
         <v>598</v>
       </c>
@@ -13254,6 +14811,9 @@
       <c r="A521">
         <v>429</v>
       </c>
+      <c r="B521">
+        <v>112071</v>
+      </c>
       <c r="C521" t="s">
         <v>599</v>
       </c>
@@ -13274,6 +14834,9 @@
       <c r="A522">
         <v>430</v>
       </c>
+      <c r="B522">
+        <v>112072</v>
+      </c>
       <c r="C522" t="s">
         <v>600</v>
       </c>
@@ -13294,6 +14857,9 @@
       <c r="A523">
         <v>431</v>
       </c>
+      <c r="B523">
+        <v>112073</v>
+      </c>
       <c r="C523" t="s">
         <v>601</v>
       </c>
@@ -13314,6 +14880,9 @@
       <c r="A524">
         <v>432</v>
       </c>
+      <c r="B524">
+        <v>112074</v>
+      </c>
       <c r="C524" t="s">
         <v>602</v>
       </c>
@@ -13334,6 +14903,9 @@
       <c r="A525">
         <v>433</v>
       </c>
+      <c r="B525">
+        <v>112075</v>
+      </c>
       <c r="C525" t="s">
         <v>603</v>
       </c>
@@ -13354,6 +14926,9 @@
       <c r="A526">
         <v>434</v>
       </c>
+      <c r="B526">
+        <v>112076</v>
+      </c>
       <c r="C526" t="s">
         <v>604</v>
       </c>
@@ -13374,6 +14949,9 @@
       <c r="A527">
         <v>435</v>
       </c>
+      <c r="B527">
+        <v>112077</v>
+      </c>
       <c r="C527" t="s">
         <v>605</v>
       </c>
@@ -13394,6 +14972,9 @@
       <c r="A528">
         <v>436</v>
       </c>
+      <c r="B528">
+        <v>112078</v>
+      </c>
       <c r="C528" t="s">
         <v>606</v>
       </c>
@@ -13414,6 +14995,9 @@
       <c r="A529">
         <v>437</v>
       </c>
+      <c r="B529">
+        <v>112079</v>
+      </c>
       <c r="C529" t="s">
         <v>607</v>
       </c>
@@ -13434,6 +15018,9 @@
       <c r="A530">
         <v>438</v>
       </c>
+      <c r="B530">
+        <v>112080</v>
+      </c>
       <c r="C530" t="s">
         <v>608</v>
       </c>
@@ -13454,6 +15041,9 @@
       <c r="A531">
         <v>439</v>
       </c>
+      <c r="B531">
+        <v>112081</v>
+      </c>
       <c r="C531" t="s">
         <v>609</v>
       </c>
@@ -13474,6 +15064,9 @@
       <c r="A532">
         <v>440</v>
       </c>
+      <c r="B532">
+        <v>112082</v>
+      </c>
       <c r="C532" t="s">
         <v>610</v>
       </c>
@@ -13494,6 +15087,9 @@
       <c r="A533">
         <v>441</v>
       </c>
+      <c r="B533">
+        <v>112083</v>
+      </c>
       <c r="C533" t="s">
         <v>611</v>
       </c>
@@ -13514,6 +15110,9 @@
       <c r="A534">
         <v>442</v>
       </c>
+      <c r="B534">
+        <v>112084</v>
+      </c>
       <c r="C534" t="s">
         <v>612</v>
       </c>
@@ -13534,6 +15133,9 @@
       <c r="A535">
         <v>443</v>
       </c>
+      <c r="B535">
+        <v>112085</v>
+      </c>
       <c r="C535" t="s">
         <v>613</v>
       </c>
@@ -13554,6 +15156,9 @@
       <c r="A536">
         <v>444</v>
       </c>
+      <c r="B536">
+        <v>112086</v>
+      </c>
       <c r="C536" t="s">
         <v>614</v>
       </c>
@@ -13574,6 +15179,9 @@
       <c r="A537">
         <v>445</v>
       </c>
+      <c r="B537">
+        <v>112087</v>
+      </c>
       <c r="C537" t="s">
         <v>615</v>
       </c>
@@ -13594,6 +15202,9 @@
       <c r="A538">
         <v>446</v>
       </c>
+      <c r="B538">
+        <v>112088</v>
+      </c>
       <c r="C538" t="s">
         <v>616</v>
       </c>
@@ -13614,6 +15225,9 @@
       <c r="A539">
         <v>447</v>
       </c>
+      <c r="B539">
+        <v>112089</v>
+      </c>
       <c r="C539" t="s">
         <v>617</v>
       </c>
@@ -13634,6 +15248,9 @@
       <c r="A540">
         <v>448</v>
       </c>
+      <c r="B540">
+        <v>112090</v>
+      </c>
       <c r="C540" t="s">
         <v>618</v>
       </c>
@@ -13654,6 +15271,9 @@
       <c r="A541">
         <v>449</v>
       </c>
+      <c r="B541">
+        <v>112091</v>
+      </c>
       <c r="C541" t="s">
         <v>619</v>
       </c>
@@ -13674,6 +15294,9 @@
       <c r="A542">
         <v>450</v>
       </c>
+      <c r="B542">
+        <v>112092</v>
+      </c>
       <c r="C542" t="s">
         <v>620</v>
       </c>
@@ -13694,6 +15317,9 @@
       <c r="A543">
         <v>451</v>
       </c>
+      <c r="B543">
+        <v>112093</v>
+      </c>
       <c r="C543" t="s">
         <v>621</v>
       </c>
@@ -13714,6 +15340,9 @@
       <c r="A544">
         <v>452</v>
       </c>
+      <c r="B544">
+        <v>112094</v>
+      </c>
       <c r="C544" t="s">
         <v>622</v>
       </c>
@@ -13734,6 +15363,9 @@
       <c r="A545">
         <v>453</v>
       </c>
+      <c r="B545">
+        <v>112095</v>
+      </c>
       <c r="C545" t="s">
         <v>623</v>
       </c>
@@ -13754,6 +15386,9 @@
       <c r="A546">
         <v>454</v>
       </c>
+      <c r="B546">
+        <v>112096</v>
+      </c>
       <c r="C546" t="s">
         <v>624</v>
       </c>
@@ -13774,6 +15409,9 @@
       <c r="A547">
         <v>455</v>
       </c>
+      <c r="B547">
+        <v>112097</v>
+      </c>
       <c r="C547" t="s">
         <v>625</v>
       </c>
@@ -13794,6 +15432,9 @@
       <c r="A548">
         <v>456</v>
       </c>
+      <c r="B548">
+        <v>112098</v>
+      </c>
       <c r="C548" t="s">
         <v>626</v>
       </c>
@@ -13814,6 +15455,9 @@
       <c r="A549">
         <v>457</v>
       </c>
+      <c r="B549">
+        <v>112099</v>
+      </c>
       <c r="C549" t="s">
         <v>627</v>
       </c>
@@ -13834,6 +15478,9 @@
       <c r="A550">
         <v>458</v>
       </c>
+      <c r="B550">
+        <v>112100</v>
+      </c>
       <c r="C550" t="s">
         <v>628</v>
       </c>
@@ -13854,6 +15501,9 @@
       <c r="A551">
         <v>459</v>
       </c>
+      <c r="B551">
+        <v>112101</v>
+      </c>
       <c r="C551" t="s">
         <v>629</v>
       </c>
@@ -13874,6 +15524,9 @@
       <c r="A552">
         <v>460</v>
       </c>
+      <c r="B552">
+        <v>112102</v>
+      </c>
       <c r="C552" t="s">
         <v>630</v>
       </c>
@@ -13894,6 +15547,9 @@
       <c r="A553">
         <v>461</v>
       </c>
+      <c r="B553">
+        <v>112103</v>
+      </c>
       <c r="C553" t="s">
         <v>631</v>
       </c>
@@ -13914,6 +15570,9 @@
       <c r="A554">
         <v>462</v>
       </c>
+      <c r="B554">
+        <v>112104</v>
+      </c>
       <c r="C554" t="s">
         <v>632</v>
       </c>
@@ -13934,6 +15593,9 @@
       <c r="A555">
         <v>463</v>
       </c>
+      <c r="B555">
+        <v>112105</v>
+      </c>
       <c r="C555" t="s">
         <v>633</v>
       </c>
@@ -13954,6 +15616,9 @@
       <c r="A556">
         <v>464</v>
       </c>
+      <c r="B556">
+        <v>112106</v>
+      </c>
       <c r="C556" t="s">
         <v>635</v>
       </c>
@@ -13974,6 +15639,9 @@
       <c r="A557">
         <v>465</v>
       </c>
+      <c r="B557">
+        <v>112107</v>
+      </c>
       <c r="C557" t="s">
         <v>636</v>
       </c>
@@ -13994,6 +15662,9 @@
       <c r="A558">
         <v>466</v>
       </c>
+      <c r="B558">
+        <v>112108</v>
+      </c>
       <c r="C558" t="s">
         <v>637</v>
       </c>
@@ -14014,6 +15685,9 @@
       <c r="A559">
         <v>467</v>
       </c>
+      <c r="B559">
+        <v>112109</v>
+      </c>
       <c r="C559" t="s">
         <v>638</v>
       </c>
@@ -14034,6 +15708,9 @@
       <c r="A560">
         <v>468</v>
       </c>
+      <c r="B560">
+        <v>112110</v>
+      </c>
       <c r="C560" t="s">
         <v>639</v>
       </c>
@@ -14054,6 +15731,9 @@
       <c r="A561">
         <v>469</v>
       </c>
+      <c r="B561">
+        <v>112111</v>
+      </c>
       <c r="C561" t="s">
         <v>640</v>
       </c>
@@ -14074,6 +15754,9 @@
       <c r="A562">
         <v>470</v>
       </c>
+      <c r="B562">
+        <v>112112</v>
+      </c>
       <c r="C562" t="s">
         <v>641</v>
       </c>
@@ -14094,6 +15777,9 @@
       <c r="A563">
         <v>471</v>
       </c>
+      <c r="B563">
+        <v>112113</v>
+      </c>
       <c r="C563" t="s">
         <v>642</v>
       </c>
@@ -14114,6 +15800,9 @@
       <c r="A564">
         <v>472</v>
       </c>
+      <c r="B564">
+        <v>112114</v>
+      </c>
       <c r="C564" t="s">
         <v>643</v>
       </c>
@@ -14134,6 +15823,9 @@
       <c r="A565">
         <v>473</v>
       </c>
+      <c r="B565">
+        <v>112115</v>
+      </c>
       <c r="C565" t="s">
         <v>644</v>
       </c>
@@ -14154,6 +15846,9 @@
       <c r="A566">
         <v>474</v>
       </c>
+      <c r="B566">
+        <v>112116</v>
+      </c>
       <c r="C566" t="s">
         <v>645</v>
       </c>
@@ -14174,6 +15869,9 @@
       <c r="A567">
         <v>475</v>
       </c>
+      <c r="B567">
+        <v>112117</v>
+      </c>
       <c r="C567" t="s">
         <v>646</v>
       </c>
@@ -14194,6 +15892,9 @@
       <c r="A568">
         <v>476</v>
       </c>
+      <c r="B568">
+        <v>112118</v>
+      </c>
       <c r="C568" t="s">
         <v>647</v>
       </c>
@@ -14214,6 +15915,9 @@
       <c r="A569">
         <v>477</v>
       </c>
+      <c r="B569">
+        <v>112119</v>
+      </c>
       <c r="C569" t="s">
         <v>648</v>
       </c>
@@ -14234,6 +15938,9 @@
       <c r="A570">
         <v>478</v>
       </c>
+      <c r="B570">
+        <v>112120</v>
+      </c>
       <c r="C570" t="s">
         <v>649</v>
       </c>
@@ -14254,6 +15961,9 @@
       <c r="A571">
         <v>479</v>
       </c>
+      <c r="B571">
+        <v>112121</v>
+      </c>
       <c r="C571" t="s">
         <v>650</v>
       </c>
@@ -14274,6 +15984,9 @@
       <c r="A572">
         <v>480</v>
       </c>
+      <c r="B572">
+        <v>112122</v>
+      </c>
       <c r="C572" t="s">
         <v>651</v>
       </c>
@@ -14294,6 +16007,9 @@
       <c r="A573">
         <v>481</v>
       </c>
+      <c r="B573">
+        <v>112123</v>
+      </c>
       <c r="C573" t="s">
         <v>652</v>
       </c>
@@ -14314,6 +16030,9 @@
       <c r="A574">
         <v>482</v>
       </c>
+      <c r="B574">
+        <v>112124</v>
+      </c>
       <c r="C574" t="s">
         <v>653</v>
       </c>
@@ -14334,6 +16053,9 @@
       <c r="A575">
         <v>483</v>
       </c>
+      <c r="B575">
+        <v>112125</v>
+      </c>
       <c r="C575" t="s">
         <v>654</v>
       </c>
@@ -14354,6 +16076,9 @@
       <c r="A576">
         <v>484</v>
       </c>
+      <c r="B576">
+        <v>112126</v>
+      </c>
       <c r="C576" t="s">
         <v>655</v>
       </c>
@@ -14374,6 +16099,9 @@
       <c r="A577">
         <v>485</v>
       </c>
+      <c r="B577">
+        <v>112127</v>
+      </c>
       <c r="C577" t="s">
         <v>656</v>
       </c>
@@ -14394,6 +16122,9 @@
       <c r="A578">
         <v>486</v>
       </c>
+      <c r="B578">
+        <v>112128</v>
+      </c>
       <c r="C578" t="s">
         <v>657</v>
       </c>
@@ -14414,6 +16145,9 @@
       <c r="A579">
         <v>487</v>
       </c>
+      <c r="B579">
+        <v>112129</v>
+      </c>
       <c r="C579" t="s">
         <v>658</v>
       </c>
@@ -14434,6 +16168,9 @@
       <c r="A580">
         <v>488</v>
       </c>
+      <c r="B580">
+        <v>112130</v>
+      </c>
       <c r="C580" t="s">
         <v>659</v>
       </c>
@@ -14454,6 +16191,9 @@
       <c r="A581">
         <v>489</v>
       </c>
+      <c r="B581">
+        <v>112131</v>
+      </c>
       <c r="C581" t="s">
         <v>660</v>
       </c>
@@ -14474,6 +16214,9 @@
       <c r="A582">
         <v>490</v>
       </c>
+      <c r="B582">
+        <v>112132</v>
+      </c>
       <c r="C582" t="s">
         <v>661</v>
       </c>
@@ -14494,6 +16237,9 @@
       <c r="A583">
         <v>491</v>
       </c>
+      <c r="B583">
+        <v>112133</v>
+      </c>
       <c r="C583" t="s">
         <v>662</v>
       </c>
@@ -14514,6 +16260,9 @@
       <c r="A584">
         <v>492</v>
       </c>
+      <c r="B584">
+        <v>112134</v>
+      </c>
       <c r="C584" t="s">
         <v>663</v>
       </c>
@@ -14534,6 +16283,9 @@
       <c r="A585">
         <v>493</v>
       </c>
+      <c r="B585">
+        <v>112135</v>
+      </c>
       <c r="C585" t="s">
         <v>664</v>
       </c>
@@ -14554,6 +16306,9 @@
       <c r="A586">
         <v>494</v>
       </c>
+      <c r="B586">
+        <v>112136</v>
+      </c>
       <c r="C586" t="s">
         <v>665</v>
       </c>
@@ -14574,6 +16329,9 @@
       <c r="A587">
         <v>495</v>
       </c>
+      <c r="B587">
+        <v>112137</v>
+      </c>
       <c r="C587" t="s">
         <v>666</v>
       </c>
@@ -14594,6 +16352,9 @@
       <c r="A588">
         <v>496</v>
       </c>
+      <c r="B588">
+        <v>112138</v>
+      </c>
       <c r="C588" t="s">
         <v>668</v>
       </c>
@@ -14614,6 +16375,9 @@
       <c r="A589">
         <v>497</v>
       </c>
+      <c r="B589">
+        <v>112139</v>
+      </c>
       <c r="C589" t="s">
         <v>669</v>
       </c>
@@ -14634,6 +16398,9 @@
       <c r="A590">
         <v>498</v>
       </c>
+      <c r="B590">
+        <v>112140</v>
+      </c>
       <c r="C590" t="s">
         <v>670</v>
       </c>
@@ -14654,6 +16421,9 @@
       <c r="A591">
         <v>499</v>
       </c>
+      <c r="B591">
+        <v>112141</v>
+      </c>
       <c r="C591" t="s">
         <v>671</v>
       </c>
@@ -14674,6 +16444,9 @@
       <c r="A592">
         <v>500</v>
       </c>
+      <c r="B592">
+        <v>112142</v>
+      </c>
       <c r="C592" t="s">
         <v>672</v>
       </c>
@@ -14694,6 +16467,9 @@
       <c r="A593">
         <v>501</v>
       </c>
+      <c r="B593">
+        <v>112143</v>
+      </c>
       <c r="C593" t="s">
         <v>674</v>
       </c>
@@ -14714,6 +16490,9 @@
       <c r="A594">
         <v>502</v>
       </c>
+      <c r="B594">
+        <v>112144</v>
+      </c>
       <c r="C594" t="s">
         <v>676</v>
       </c>
@@ -14734,6 +16513,9 @@
       <c r="A595">
         <v>503</v>
       </c>
+      <c r="B595">
+        <v>112145</v>
+      </c>
       <c r="C595" t="s">
         <v>677</v>
       </c>
@@ -14754,6 +16536,9 @@
       <c r="A596">
         <v>504</v>
       </c>
+      <c r="B596">
+        <v>112146</v>
+      </c>
       <c r="C596" t="s">
         <v>678</v>
       </c>
@@ -14774,6 +16559,9 @@
       <c r="A597">
         <v>505</v>
       </c>
+      <c r="B597">
+        <v>112147</v>
+      </c>
       <c r="C597" t="s">
         <v>679</v>
       </c>
@@ -14794,6 +16582,9 @@
       <c r="A598">
         <v>506</v>
       </c>
+      <c r="B598">
+        <v>112148</v>
+      </c>
       <c r="C598" t="s">
         <v>680</v>
       </c>
@@ -14814,6 +16605,9 @@
       <c r="A599">
         <v>507</v>
       </c>
+      <c r="B599">
+        <v>112149</v>
+      </c>
       <c r="C599" t="s">
         <v>681</v>
       </c>
@@ -14834,6 +16628,9 @@
       <c r="A600">
         <v>508</v>
       </c>
+      <c r="B600">
+        <v>112150</v>
+      </c>
       <c r="C600" t="s">
         <v>682</v>
       </c>
@@ -14854,6 +16651,9 @@
       <c r="A601">
         <v>509</v>
       </c>
+      <c r="B601">
+        <v>112151</v>
+      </c>
       <c r="C601" t="s">
         <v>683</v>
       </c>
@@ -14874,6 +16674,9 @@
       <c r="A602">
         <v>510</v>
       </c>
+      <c r="B602">
+        <v>112152</v>
+      </c>
       <c r="C602" t="s">
         <v>684</v>
       </c>
@@ -14894,6 +16697,9 @@
       <c r="A603">
         <v>511</v>
       </c>
+      <c r="B603">
+        <v>112153</v>
+      </c>
       <c r="C603" t="s">
         <v>685</v>
       </c>
@@ -14914,6 +16720,9 @@
       <c r="A604">
         <v>512</v>
       </c>
+      <c r="B604">
+        <v>112154</v>
+      </c>
       <c r="C604" t="s">
         <v>686</v>
       </c>
@@ -14934,6 +16743,9 @@
       <c r="A605">
         <v>513</v>
       </c>
+      <c r="B605">
+        <v>112155</v>
+      </c>
       <c r="C605" t="s">
         <v>687</v>
       </c>
@@ -14954,6 +16766,9 @@
       <c r="A606">
         <v>514</v>
       </c>
+      <c r="B606">
+        <v>112156</v>
+      </c>
       <c r="C606" t="s">
         <v>688</v>
       </c>
@@ -14974,6 +16789,9 @@
       <c r="A607">
         <v>515</v>
       </c>
+      <c r="B607">
+        <v>112157</v>
+      </c>
       <c r="C607" t="s">
         <v>689</v>
       </c>
@@ -14994,6 +16812,9 @@
       <c r="A608">
         <v>516</v>
       </c>
+      <c r="B608">
+        <v>112158</v>
+      </c>
       <c r="C608" t="s">
         <v>691</v>
       </c>
@@ -15014,6 +16835,9 @@
       <c r="A609">
         <v>517</v>
       </c>
+      <c r="B609">
+        <v>112159</v>
+      </c>
       <c r="C609" t="s">
         <v>692</v>
       </c>
@@ -15034,6 +16858,9 @@
       <c r="A610">
         <v>518</v>
       </c>
+      <c r="B610">
+        <v>112160</v>
+      </c>
       <c r="C610" t="s">
         <v>693</v>
       </c>
@@ -15054,6 +16881,9 @@
       <c r="A611">
         <v>519</v>
       </c>
+      <c r="B611">
+        <v>112161</v>
+      </c>
       <c r="C611" t="s">
         <v>695</v>
       </c>
@@ -15074,6 +16904,9 @@
       <c r="A612">
         <v>520</v>
       </c>
+      <c r="B612">
+        <v>112162</v>
+      </c>
       <c r="C612" t="s">
         <v>696</v>
       </c>
@@ -15094,6 +16927,9 @@
       <c r="A613">
         <v>521</v>
       </c>
+      <c r="B613">
+        <v>112163</v>
+      </c>
       <c r="C613" t="s">
         <v>697</v>
       </c>
@@ -15114,6 +16950,9 @@
       <c r="A614">
         <v>522</v>
       </c>
+      <c r="B614">
+        <v>112164</v>
+      </c>
       <c r="C614" t="s">
         <v>698</v>
       </c>
@@ -15134,6 +16973,9 @@
       <c r="A615">
         <v>523</v>
       </c>
+      <c r="B615">
+        <v>112165</v>
+      </c>
       <c r="C615" t="s">
         <v>699</v>
       </c>
@@ -15154,6 +16996,9 @@
       <c r="A616">
         <v>524</v>
       </c>
+      <c r="B616">
+        <v>112166</v>
+      </c>
       <c r="C616" t="s">
         <v>700</v>
       </c>
@@ -15174,6 +17019,9 @@
       <c r="A617">
         <v>525</v>
       </c>
+      <c r="B617">
+        <v>112167</v>
+      </c>
       <c r="C617" t="s">
         <v>701</v>
       </c>
@@ -15194,6 +17042,9 @@
       <c r="A618">
         <v>526</v>
       </c>
+      <c r="B618">
+        <v>112168</v>
+      </c>
       <c r="C618" t="s">
         <v>702</v>
       </c>
@@ -15214,6 +17065,9 @@
       <c r="A619">
         <v>527</v>
       </c>
+      <c r="B619">
+        <v>112169</v>
+      </c>
       <c r="C619" t="s">
         <v>704</v>
       </c>
@@ -15234,6 +17088,9 @@
       <c r="A620">
         <v>528</v>
       </c>
+      <c r="B620">
+        <v>112170</v>
+      </c>
       <c r="C620" t="s">
         <v>705</v>
       </c>
@@ -15254,6 +17111,9 @@
       <c r="A621">
         <v>529</v>
       </c>
+      <c r="B621">
+        <v>112171</v>
+      </c>
       <c r="C621" t="s">
         <v>706</v>
       </c>
@@ -15274,6 +17134,9 @@
       <c r="A622">
         <v>530</v>
       </c>
+      <c r="B622">
+        <v>112172</v>
+      </c>
       <c r="C622" t="s">
         <v>707</v>
       </c>
@@ -15294,6 +17157,9 @@
       <c r="A623">
         <v>531</v>
       </c>
+      <c r="B623">
+        <v>112173</v>
+      </c>
       <c r="C623" t="s">
         <v>708</v>
       </c>
@@ -15314,6 +17180,9 @@
       <c r="A624">
         <v>532</v>
       </c>
+      <c r="B624">
+        <v>112174</v>
+      </c>
       <c r="C624" t="s">
         <v>709</v>
       </c>
@@ -15334,6 +17203,9 @@
       <c r="A625">
         <v>533</v>
       </c>
+      <c r="B625">
+        <v>112175</v>
+      </c>
       <c r="C625" t="s">
         <v>710</v>
       </c>
@@ -15354,6 +17226,9 @@
       <c r="A626">
         <v>534</v>
       </c>
+      <c r="B626">
+        <v>112176</v>
+      </c>
       <c r="C626" t="s">
         <v>711</v>
       </c>
@@ -15374,6 +17249,9 @@
       <c r="A627">
         <v>535</v>
       </c>
+      <c r="B627">
+        <v>112177</v>
+      </c>
       <c r="C627" t="s">
         <v>712</v>
       </c>
@@ -15394,6 +17272,9 @@
       <c r="A628">
         <v>536</v>
       </c>
+      <c r="B628">
+        <v>112178</v>
+      </c>
       <c r="C628" t="s">
         <v>713</v>
       </c>
@@ -15414,6 +17295,9 @@
       <c r="A629">
         <v>537</v>
       </c>
+      <c r="B629">
+        <v>112179</v>
+      </c>
       <c r="C629" t="s">
         <v>714</v>
       </c>
@@ -15434,6 +17318,9 @@
       <c r="A630">
         <v>538</v>
       </c>
+      <c r="B630">
+        <v>112180</v>
+      </c>
       <c r="C630" t="s">
         <v>715</v>
       </c>
@@ -15454,6 +17341,9 @@
       <c r="A631">
         <v>539</v>
       </c>
+      <c r="B631">
+        <v>112181</v>
+      </c>
       <c r="C631" t="s">
         <v>716</v>
       </c>
@@ -15474,6 +17364,9 @@
       <c r="A632">
         <v>540</v>
       </c>
+      <c r="B632">
+        <v>112182</v>
+      </c>
       <c r="C632" t="s">
         <v>717</v>
       </c>
@@ -15494,6 +17387,9 @@
       <c r="A633">
         <v>541</v>
       </c>
+      <c r="B633">
+        <v>112183</v>
+      </c>
       <c r="C633" t="s">
         <v>718</v>
       </c>
@@ -15514,6 +17410,9 @@
       <c r="A634">
         <v>542</v>
       </c>
+      <c r="B634">
+        <v>112184</v>
+      </c>
       <c r="C634" t="s">
         <v>719</v>
       </c>
@@ -15534,6 +17433,9 @@
       <c r="A635">
         <v>543</v>
       </c>
+      <c r="B635">
+        <v>112185</v>
+      </c>
       <c r="C635" t="s">
         <v>720</v>
       </c>
@@ -15554,6 +17456,9 @@
       <c r="A636">
         <v>544</v>
       </c>
+      <c r="B636">
+        <v>112186</v>
+      </c>
       <c r="C636" t="s">
         <v>721</v>
       </c>
@@ -15574,6 +17479,9 @@
       <c r="A637">
         <v>545</v>
       </c>
+      <c r="B637">
+        <v>112187</v>
+      </c>
       <c r="C637" t="s">
         <v>722</v>
       </c>
@@ -15594,6 +17502,9 @@
       <c r="A638">
         <v>546</v>
       </c>
+      <c r="B638">
+        <v>112188</v>
+      </c>
       <c r="C638" t="s">
         <v>723</v>
       </c>
@@ -15614,6 +17525,9 @@
       <c r="A639">
         <v>547</v>
       </c>
+      <c r="B639">
+        <v>112189</v>
+      </c>
       <c r="C639" t="s">
         <v>724</v>
       </c>
@@ -15634,6 +17548,9 @@
       <c r="A640">
         <v>548</v>
       </c>
+      <c r="B640">
+        <v>112190</v>
+      </c>
       <c r="C640" t="s">
         <v>725</v>
       </c>
@@ -15654,6 +17571,9 @@
       <c r="A641">
         <v>549</v>
       </c>
+      <c r="B641">
+        <v>112191</v>
+      </c>
       <c r="C641" t="s">
         <v>726</v>
       </c>
@@ -15674,6 +17594,9 @@
       <c r="A642">
         <v>550</v>
       </c>
+      <c r="B642">
+        <v>112192</v>
+      </c>
       <c r="C642" t="s">
         <v>727</v>
       </c>
@@ -15694,6 +17617,9 @@
       <c r="A643">
         <v>551</v>
       </c>
+      <c r="B643">
+        <v>112193</v>
+      </c>
       <c r="C643" t="s">
         <v>728</v>
       </c>
@@ -15714,6 +17640,9 @@
       <c r="A644">
         <v>552</v>
       </c>
+      <c r="B644">
+        <v>112194</v>
+      </c>
       <c r="C644" t="s">
         <v>729</v>
       </c>
@@ -15734,6 +17663,9 @@
       <c r="A645">
         <v>553</v>
       </c>
+      <c r="B645">
+        <v>112195</v>
+      </c>
       <c r="C645" t="s">
         <v>730</v>
       </c>
@@ -15754,6 +17686,9 @@
       <c r="A646">
         <v>554</v>
       </c>
+      <c r="B646">
+        <v>112196</v>
+      </c>
       <c r="C646" t="s">
         <v>731</v>
       </c>
@@ -15774,6 +17709,9 @@
       <c r="A647">
         <v>555</v>
       </c>
+      <c r="B647">
+        <v>112197</v>
+      </c>
       <c r="C647" t="s">
         <v>732</v>
       </c>
@@ -15794,6 +17732,9 @@
       <c r="A648">
         <v>556</v>
       </c>
+      <c r="B648">
+        <v>112198</v>
+      </c>
       <c r="C648" t="s">
         <v>733</v>
       </c>
@@ -15814,6 +17755,9 @@
       <c r="A649">
         <v>557</v>
       </c>
+      <c r="B649">
+        <v>112199</v>
+      </c>
       <c r="C649" t="s">
         <v>734</v>
       </c>
@@ -15834,6 +17778,9 @@
       <c r="A650">
         <v>558</v>
       </c>
+      <c r="B650">
+        <v>112200</v>
+      </c>
       <c r="C650" t="s">
         <v>735</v>
       </c>
@@ -15854,6 +17801,9 @@
       <c r="A651">
         <v>559</v>
       </c>
+      <c r="B651">
+        <v>112201</v>
+      </c>
       <c r="C651" t="s">
         <v>736</v>
       </c>
@@ -15874,6 +17824,9 @@
       <c r="A652">
         <v>560</v>
       </c>
+      <c r="B652">
+        <v>112202</v>
+      </c>
       <c r="C652" t="s">
         <v>737</v>
       </c>
@@ -15894,6 +17847,9 @@
       <c r="A653">
         <v>561</v>
       </c>
+      <c r="B653">
+        <v>112203</v>
+      </c>
       <c r="C653" t="s">
         <v>738</v>
       </c>
@@ -15914,6 +17870,9 @@
       <c r="A654">
         <v>562</v>
       </c>
+      <c r="B654">
+        <v>112204</v>
+      </c>
       <c r="C654" t="s">
         <v>739</v>
       </c>
@@ -15934,6 +17893,9 @@
       <c r="A655">
         <v>563</v>
       </c>
+      <c r="B655">
+        <v>112205</v>
+      </c>
       <c r="C655" t="s">
         <v>740</v>
       </c>
@@ -15954,6 +17916,9 @@
       <c r="A656">
         <v>564</v>
       </c>
+      <c r="B656">
+        <v>112206</v>
+      </c>
       <c r="C656" t="s">
         <v>741</v>
       </c>
@@ -15974,6 +17939,9 @@
       <c r="A657">
         <v>565</v>
       </c>
+      <c r="B657">
+        <v>112207</v>
+      </c>
       <c r="C657" t="s">
         <v>742</v>
       </c>
@@ -15994,6 +17962,9 @@
       <c r="A658">
         <v>566</v>
       </c>
+      <c r="B658">
+        <v>112208</v>
+      </c>
       <c r="C658" t="s">
         <v>743</v>
       </c>
@@ -16014,6 +17985,9 @@
       <c r="A659">
         <v>567</v>
       </c>
+      <c r="B659">
+        <v>112209</v>
+      </c>
       <c r="C659" t="s">
         <v>744</v>
       </c>
@@ -16034,6 +18008,9 @@
       <c r="A660">
         <v>568</v>
       </c>
+      <c r="B660">
+        <v>112210</v>
+      </c>
       <c r="C660" t="s">
         <v>746</v>
       </c>
@@ -16054,6 +18031,9 @@
       <c r="A661">
         <v>569</v>
       </c>
+      <c r="B661">
+        <v>112211</v>
+      </c>
       <c r="C661" t="s">
         <v>747</v>
       </c>
@@ -16074,6 +18054,9 @@
       <c r="A662">
         <v>570</v>
       </c>
+      <c r="B662">
+        <v>112212</v>
+      </c>
       <c r="C662" t="s">
         <v>748</v>
       </c>
@@ -16094,6 +18077,9 @@
       <c r="A663">
         <v>571</v>
       </c>
+      <c r="B663">
+        <v>112213</v>
+      </c>
       <c r="C663" t="s">
         <v>750</v>
       </c>
@@ -16114,6 +18100,9 @@
       <c r="A664">
         <v>572</v>
       </c>
+      <c r="B664">
+        <v>112214</v>
+      </c>
       <c r="C664" t="s">
         <v>751</v>
       </c>
@@ -16134,6 +18123,9 @@
       <c r="A665">
         <v>573</v>
       </c>
+      <c r="B665">
+        <v>112215</v>
+      </c>
       <c r="C665" t="s">
         <v>752</v>
       </c>
@@ -16154,6 +18146,9 @@
       <c r="A666">
         <v>574</v>
       </c>
+      <c r="B666">
+        <v>112216</v>
+      </c>
       <c r="C666" t="s">
         <v>753</v>
       </c>
@@ -16174,6 +18169,9 @@
       <c r="A667">
         <v>575</v>
       </c>
+      <c r="B667">
+        <v>112217</v>
+      </c>
       <c r="C667" t="s">
         <v>754</v>
       </c>
@@ -16194,6 +18192,9 @@
       <c r="A668">
         <v>576</v>
       </c>
+      <c r="B668">
+        <v>112218</v>
+      </c>
       <c r="C668" t="s">
         <v>756</v>
       </c>
@@ -16214,6 +18215,9 @@
       <c r="A669">
         <v>577</v>
       </c>
+      <c r="B669">
+        <v>112219</v>
+      </c>
       <c r="C669" t="s">
         <v>757</v>
       </c>
@@ -16234,6 +18238,9 @@
       <c r="A670">
         <v>578</v>
       </c>
+      <c r="B670">
+        <v>112220</v>
+      </c>
       <c r="C670" t="s">
         <v>758</v>
       </c>
@@ -16254,6 +18261,9 @@
       <c r="A671">
         <v>579</v>
       </c>
+      <c r="B671">
+        <v>112221</v>
+      </c>
       <c r="C671" t="s">
         <v>759</v>
       </c>
@@ -16273,6 +18283,9 @@
     <row r="672" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>580</v>
+      </c>
+      <c r="B672">
+        <v>112222</v>
       </c>
       <c r="C672" t="s">
         <v>760</v>
